--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2DFD9ACC-01F2-4C2E-BE45-B83868AB23AD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,178 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+  <si>
+    <t>DATA DADO</t>
+  </si>
+  <si>
+    <t>COD FLU</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>NIVEL</t>
+  </si>
+  <si>
+    <t>CHUVA</t>
+  </si>
+  <si>
+    <t>VAZAO</t>
+  </si>
+  <si>
+    <t>Balbina_Jusante</t>
+  </si>
+  <si>
+    <t>2595.2</t>
+  </si>
+  <si>
+    <t>623.62</t>
+  </si>
+  <si>
+    <t>2565.13</t>
+  </si>
+  <si>
+    <t>518.06</t>
+  </si>
+  <si>
+    <t>2547.56</t>
+  </si>
+  <si>
+    <t>460.50</t>
+  </si>
+  <si>
+    <t>2528.74</t>
+  </si>
+  <si>
+    <t>402.26</t>
+  </si>
+  <si>
+    <t>2521.04</t>
+  </si>
+  <si>
+    <t>379.47</t>
+  </si>
+  <si>
+    <t>2510.15</t>
+  </si>
+  <si>
+    <t>348.25</t>
+  </si>
+  <si>
+    <t>2491.65</t>
+  </si>
+  <si>
+    <t>298.03</t>
+  </si>
+  <si>
+    <t>2492.49</t>
+  </si>
+  <si>
+    <t>300.23</t>
+  </si>
+  <si>
+    <t>2497.95</t>
+  </si>
+  <si>
+    <t>314.73</t>
+  </si>
+  <si>
+    <t>2507.42</t>
+  </si>
+  <si>
+    <t>340.62</t>
+  </si>
+  <si>
+    <t>2519.27</t>
+  </si>
+  <si>
+    <t>374.31</t>
+  </si>
+  <si>
+    <t>2532.08</t>
+  </si>
+  <si>
+    <t>412.34</t>
+  </si>
+  <si>
+    <t>2546.55</t>
+  </si>
+  <si>
+    <t>457.28</t>
+  </si>
+  <si>
+    <t>2565.24</t>
+  </si>
+  <si>
+    <t>518.43</t>
+  </si>
+  <si>
+    <t>2590.81</t>
+  </si>
+  <si>
+    <t>607.66</t>
+  </si>
+  <si>
+    <t>2618.97</t>
+  </si>
+  <si>
+    <t>713.28</t>
+  </si>
+  <si>
+    <t>2633.12</t>
+  </si>
+  <si>
+    <t>769.22</t>
+  </si>
+  <si>
+    <t>2651.49</t>
+  </si>
+  <si>
+    <t>844.69</t>
+  </si>
+  <si>
+    <t>2673.55</t>
+  </si>
+  <si>
+    <t>939.51</t>
+  </si>
+  <si>
+    <t>2685.13</t>
+  </si>
+  <si>
+    <t>991.10</t>
+  </si>
+  <si>
+    <t>2688.1</t>
+  </si>
+  <si>
+    <t>1,004.54</t>
+  </si>
+  <si>
+    <t>2681.77</t>
+  </si>
+  <si>
+    <t>976.00</t>
+  </si>
+  <si>
+    <t>2675.49</t>
+  </si>
+  <si>
+    <t>948.07</t>
+  </si>
+  <si>
+    <t>2665.36</t>
+  </si>
+  <si>
+    <t>903.77</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +506,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>45200.958472222221</v>
+      </c>
+      <c r="B2">
+        <v>16090000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>45200.916805555556</v>
+      </c>
+      <c r="B3">
+        <v>16090000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>45200.875138888892</v>
+      </c>
+      <c r="B4">
+        <v>16090000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45200.833472222221</v>
+      </c>
+      <c r="B5">
+        <v>16090000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45200.791805555556</v>
+      </c>
+      <c r="B6">
+        <v>16090000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45200.750138888892</v>
+      </c>
+      <c r="B7">
+        <v>16090000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>45200.708472222221</v>
+      </c>
+      <c r="B8">
+        <v>16090000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45200.666805555556</v>
+      </c>
+      <c r="B9">
+        <v>16090000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45200.625138888892</v>
+      </c>
+      <c r="B10">
+        <v>16090000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45200.583472222221</v>
+      </c>
+      <c r="B11">
+        <v>16090000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>45200.541805555556</v>
+      </c>
+      <c r="B12">
+        <v>16090000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>45200.500138888892</v>
+      </c>
+      <c r="B13">
+        <v>16090000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>45200.458472222221</v>
+      </c>
+      <c r="B14">
+        <v>16090000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>45200.416805555556</v>
+      </c>
+      <c r="B15">
+        <v>16090000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>45200.375138888892</v>
+      </c>
+      <c r="B16">
+        <v>16090000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>45200.333472222221</v>
+      </c>
+      <c r="B17">
+        <v>16090000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45200.291805555556</v>
+      </c>
+      <c r="B18">
+        <v>16090000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45200.250138888892</v>
+      </c>
+      <c r="B19">
+        <v>16090000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>45200.208472222221</v>
+      </c>
+      <c r="B20">
+        <v>16090000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>45200.166805555556</v>
+      </c>
+      <c r="B21">
+        <v>16090000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>45200.125138888892</v>
+      </c>
+      <c r="B22">
+        <v>16090000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>45200.083472222221</v>
+      </c>
+      <c r="B23">
+        <v>16090000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>45200.041805555556</v>
+      </c>
+      <c r="B24">
+        <v>16090000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>45200.000138888892</v>
+      </c>
+      <c r="B25">
+        <v>16090000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{36182EE5-16D5-4C8E-B621-E2E7823DFBD9}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{911C50D9-5C51-4944-9E1B-1322272C6D0C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Data Hora</t>
-  </si>
-  <si>
     <t>Chuva (mm)</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Vazão (m3/s)</t>
+  </si>
+  <si>
+    <t>Data-Hora</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,16 +371,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{911C50D9-5C51-4944-9E1B-1322272C6D0C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7DF35155-EA65-4BF8-A097-E40D3FD8070C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +674,418 @@
         <v>903.77</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45216.000138888892</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2">
+        <v>2501.15</v>
+      </c>
+      <c r="D27" s="2">
+        <v>323.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45216.041805555556</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2">
+        <v>2513.98</v>
+      </c>
+      <c r="D28" s="2">
+        <v>359.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45216.083472222221</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2">
+        <v>2534.8200000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <v>420.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45216.125138888892</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2">
+        <v>2544.7600000000002</v>
+      </c>
+      <c r="D30" s="2">
+        <v>451.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45216.166805555556</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2">
+        <v>2531.2600000000002</v>
+      </c>
+      <c r="D31" s="2">
+        <v>409.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45216.208472222221</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2">
+        <v>2520.9499999999998</v>
+      </c>
+      <c r="D32" s="2">
+        <v>379.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45216.250138888892</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2">
+        <v>2513.4699999999998</v>
+      </c>
+      <c r="D33" s="2">
+        <v>357.64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45216.291805555556</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2">
+        <v>2508.5500000000002</v>
+      </c>
+      <c r="D34" s="2">
+        <v>343.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45216.333472222221</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2">
+        <v>2503.48</v>
+      </c>
+      <c r="D35" s="2">
+        <v>329.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45216.375138888892</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2">
+        <v>2500.9699999999998</v>
+      </c>
+      <c r="D36" s="2">
+        <v>322.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45216.416805555556</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2">
+        <v>2498.13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>315.22000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45216.458472222221</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2">
+        <v>2496.67</v>
+      </c>
+      <c r="D38" s="2">
+        <v>311.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45216.500138888892</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2">
+        <v>2494.98</v>
+      </c>
+      <c r="D39" s="2">
+        <v>306.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45216.541805555556</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2">
+        <v>2493.7600000000002</v>
+      </c>
+      <c r="D40" s="2">
+        <v>303.58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45216.583472222221</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2">
+        <v>2492.5100000000002</v>
+      </c>
+      <c r="D41" s="2">
+        <v>300.27999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45216.625138888892</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2">
+        <v>2491.7600000000002</v>
+      </c>
+      <c r="D42" s="2">
+        <v>298.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45216.666805555556</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2">
+        <v>2533.7600000000002</v>
+      </c>
+      <c r="D43" s="2">
+        <v>417.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45216.708472222221</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2">
+        <v>2594.2199999999998</v>
+      </c>
+      <c r="D44" s="2">
+        <v>620.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45216.750138888892</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2">
+        <v>2630.5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>758.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45216.791805555556</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2">
+        <v>2633.59</v>
+      </c>
+      <c r="D46" s="2">
+        <v>771.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45216.833472222221</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2">
+        <v>2629.91</v>
+      </c>
+      <c r="D47" s="2">
+        <v>756.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45216.875138888892</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2">
+        <v>2635.57</v>
+      </c>
+      <c r="D48" s="2">
+        <v>779.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45216.916805555556</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2">
+        <v>2644.77</v>
+      </c>
+      <c r="D49" s="2">
+        <v>816.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45216.958472222221</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2">
+        <v>2660.85</v>
+      </c>
+      <c r="D50" s="2">
+        <v>884.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45217.000138888892</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51">
+        <v>2675.74</v>
+      </c>
+      <c r="D51">
+        <v>949.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45217.041805555556</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52">
+        <v>2682.38</v>
+      </c>
+      <c r="D52">
+        <v>978.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45217.083472222221</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53">
+        <v>2687.69</v>
+      </c>
+      <c r="D53">
+        <v>1002.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45217.125138888892</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54">
+        <v>2682.13</v>
+      </c>
+      <c r="D54">
+        <v>977.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45217.166805555556</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55">
+        <v>2663.9</v>
+      </c>
+      <c r="D55">
+        <v>897.47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45217.208472222221</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56">
+        <v>2638.23</v>
+      </c>
+      <c r="D56">
+        <v>789.89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45217.250138888892</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57">
+        <v>2602.34</v>
+      </c>
+      <c r="D57">
+        <v>649.98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45217.291805555556</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58">
+        <v>2577.5500000000002</v>
+      </c>
+      <c r="D58">
+        <v>560.59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45217.333472222221</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59">
+        <v>2552.73</v>
+      </c>
+      <c r="D59">
+        <v>477.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45217.375138888892</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60">
+        <v>2534.1799999999998</v>
+      </c>
+      <c r="D60">
+        <v>418.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7DF35155-EA65-4BF8-A097-E40D3FD8070C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC4C71D3-9C53-455D-9300-B0A2AFAA64FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,6 +37,45 @@
   </si>
   <si>
     <t>Data-Hora</t>
+  </si>
+  <si>
+    <t>2520.3</t>
+  </si>
+  <si>
+    <t>377.31</t>
+  </si>
+  <si>
+    <t>2509.22</t>
+  </si>
+  <si>
+    <t>345.65</t>
+  </si>
+  <si>
+    <t>2501.24</t>
+  </si>
+  <si>
+    <t>323.62</t>
+  </si>
+  <si>
+    <t>2495.29</t>
+  </si>
+  <si>
+    <t>307.63</t>
+  </si>
+  <si>
+    <t>293.72</t>
+  </si>
+  <si>
+    <t>2486.91</t>
+  </si>
+  <si>
+    <t>285.73</t>
+  </si>
+  <si>
+    <t>2488.3</t>
+  </si>
+  <si>
+    <t>289.31</t>
   </si>
 </sst>
 </file>
@@ -358,18 +397,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -379,10 +418,10 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -391,10 +430,10 @@
         <v>45200.958472222221</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2595.1999999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>623.62</v>
       </c>
     </row>
@@ -403,10 +442,10 @@
         <v>45200.916805555556</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2565.13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>518.05999999999995</v>
       </c>
     </row>
@@ -415,10 +454,10 @@
         <v>45200.875138888892</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2547.56</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>460.5</v>
       </c>
     </row>
@@ -427,10 +466,10 @@
         <v>45200.833472222221</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>2528.7399999999998</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>402.26</v>
       </c>
     </row>
@@ -439,10 +478,10 @@
         <v>45200.791805555556</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2521.04</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>379.47</v>
       </c>
     </row>
@@ -451,10 +490,10 @@
         <v>45200.750138888892</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>2510.15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>348.25</v>
       </c>
     </row>
@@ -463,10 +502,10 @@
         <v>45200.708472222221</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>2491.65</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>298.02999999999997</v>
       </c>
     </row>
@@ -475,10 +514,10 @@
         <v>45200.666805555556</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>2492.4899999999998</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>300.23</v>
       </c>
     </row>
@@ -487,10 +526,10 @@
         <v>45200.625138888892</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>2497.9499999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>314.73</v>
       </c>
     </row>
@@ -499,10 +538,10 @@
         <v>45200.583472222221</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>2507.42</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>340.62</v>
       </c>
     </row>
@@ -511,10 +550,10 @@
         <v>45200.541805555556</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>2519.27</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>374.31</v>
       </c>
     </row>
@@ -523,10 +562,10 @@
         <v>45200.500138888892</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>2532.08</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>412.34</v>
       </c>
     </row>
@@ -535,10 +574,10 @@
         <v>45200.458472222221</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>2546.5500000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>457.28</v>
       </c>
     </row>
@@ -547,10 +586,10 @@
         <v>45200.416805555556</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>2565.2399999999998</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>518.42999999999995</v>
       </c>
     </row>
@@ -559,10 +598,10 @@
         <v>45200.375138888892</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>2590.81</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>607.66</v>
       </c>
     </row>
@@ -571,10 +610,10 @@
         <v>45200.333472222221</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>2618.9699999999998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>713.28</v>
       </c>
     </row>
@@ -583,10 +622,10 @@
         <v>45200.291805555556</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>2633.12</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>769.22</v>
       </c>
     </row>
@@ -595,10 +634,10 @@
         <v>45200.250138888892</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>2651.49</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>844.69</v>
       </c>
     </row>
@@ -607,10 +646,10 @@
         <v>45200.208472222221</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>2673.55</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>939.51</v>
       </c>
     </row>
@@ -619,10 +658,10 @@
         <v>45200.166805555556</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>2685.13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>991.1</v>
       </c>
     </row>
@@ -631,10 +670,10 @@
         <v>45200.125138888892</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>2688.1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>1004.54</v>
       </c>
     </row>
@@ -643,10 +682,10 @@
         <v>45200.083472222221</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>2681.77</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>976</v>
       </c>
     </row>
@@ -655,10 +694,10 @@
         <v>45200.041805555556</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>2675.49</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>948.07</v>
       </c>
     </row>
@@ -667,10 +706,10 @@
         <v>45200.000138888892</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>2665.36</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>903.77</v>
       </c>
     </row>
@@ -971,10 +1010,10 @@
         <v>45217.000138888892</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>2675.74</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>949.17</v>
       </c>
     </row>
@@ -983,10 +1022,10 @@
         <v>45217.041805555556</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>2682.38</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>978.74</v>
       </c>
     </row>
@@ -995,10 +1034,10 @@
         <v>45217.083472222221</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>2687.69</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>1002.68</v>
       </c>
     </row>
@@ -1007,10 +1046,10 @@
         <v>45217.125138888892</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>2682.13</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>977.62</v>
       </c>
     </row>
@@ -1019,10 +1058,10 @@
         <v>45217.166805555556</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>2663.9</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>897.47</v>
       </c>
     </row>
@@ -1031,10 +1070,10 @@
         <v>45217.208472222221</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>2638.23</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>789.89</v>
       </c>
     </row>
@@ -1043,10 +1082,10 @@
         <v>45217.250138888892</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>2602.34</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>649.98</v>
       </c>
     </row>
@@ -1055,10 +1094,10 @@
         <v>45217.291805555556</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>2577.5500000000002</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>560.59</v>
       </c>
     </row>
@@ -1067,10 +1106,10 @@
         <v>45217.333472222221</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>2552.73</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>477.12</v>
       </c>
     </row>
@@ -1079,11 +1118,95 @@
         <v>45217.375138888892</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>2534.1799999999998</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>418.73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45217.416805555556</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45217.458472222221</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45217.500138888892</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45217.541805555556</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45217.583472222221</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2">
+        <v>2490</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45217.625138888892</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45217.666805555556</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC4C71D3-9C53-455D-9300-B0A2AFAA64FA}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CFC33205-E744-4B21-9242-C7E9B8A52CA3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -76,16 +76,70 @@
   </si>
   <si>
     <t>289.31</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>2484.83</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>2488.35</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2489.8</t>
+  </si>
+  <si>
+    <t>2491.01</t>
+  </si>
+  <si>
+    <t>2498.98</t>
+  </si>
+  <si>
+    <t>2515.07</t>
+  </si>
+  <si>
+    <t>283.38</t>
+  </si>
+  <si>
+    <t>280.39</t>
+  </si>
+  <si>
+    <t>289.43</t>
+  </si>
+  <si>
+    <t>293.19</t>
+  </si>
+  <si>
+    <t>296.34</t>
+  </si>
+  <si>
+    <t>317.49</t>
+  </si>
+  <si>
+    <t>362.20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,10 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -397,16 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -415,7 +472,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -429,7 +486,9 @@
       <c r="A2" s="1">
         <v>45200.958472222221</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
       <c r="C2" s="2">
         <v>2595.1999999999998</v>
       </c>
@@ -441,7 +500,9 @@
       <c r="A3" s="1">
         <v>45200.916805555556</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
         <v>2565.13</v>
       </c>
@@ -453,7 +514,9 @@
       <c r="A4" s="1">
         <v>45200.875138888892</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
       <c r="C4" s="2">
         <v>2547.56</v>
       </c>
@@ -465,7 +528,9 @@
       <c r="A5" s="1">
         <v>45200.833472222221</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
       <c r="C5" s="2">
         <v>2528.7399999999998</v>
       </c>
@@ -477,7 +542,9 @@
       <c r="A6" s="1">
         <v>45200.791805555556</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
       <c r="C6" s="2">
         <v>2521.04</v>
       </c>
@@ -489,7 +556,9 @@
       <c r="A7" s="1">
         <v>45200.750138888892</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
       <c r="C7" s="2">
         <v>2510.15</v>
       </c>
@@ -501,7 +570,9 @@
       <c r="A8" s="1">
         <v>45200.708472222221</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
       <c r="C8" s="2">
         <v>2491.65</v>
       </c>
@@ -513,7 +584,9 @@
       <c r="A9" s="1">
         <v>45200.666805555556</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
       <c r="C9" s="2">
         <v>2492.4899999999998</v>
       </c>
@@ -525,7 +598,9 @@
       <c r="A10" s="1">
         <v>45200.625138888892</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
       <c r="C10" s="2">
         <v>2497.9499999999998</v>
       </c>
@@ -537,7 +612,9 @@
       <c r="A11" s="1">
         <v>45200.583472222221</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
       <c r="C11" s="2">
         <v>2507.42</v>
       </c>
@@ -549,7 +626,9 @@
       <c r="A12" s="1">
         <v>45200.541805555556</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
       <c r="C12" s="2">
         <v>2519.27</v>
       </c>
@@ -561,7 +640,9 @@
       <c r="A13" s="1">
         <v>45200.500138888892</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
       <c r="C13" s="2">
         <v>2532.08</v>
       </c>
@@ -573,7 +654,9 @@
       <c r="A14" s="1">
         <v>45200.458472222221</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
       <c r="C14" s="2">
         <v>2546.5500000000002</v>
       </c>
@@ -585,7 +668,9 @@
       <c r="A15" s="1">
         <v>45200.416805555556</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
       <c r="C15" s="2">
         <v>2565.2399999999998</v>
       </c>
@@ -597,7 +682,9 @@
       <c r="A16" s="1">
         <v>45200.375138888892</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
       <c r="C16" s="2">
         <v>2590.81</v>
       </c>
@@ -609,7 +696,9 @@
       <c r="A17" s="1">
         <v>45200.333472222221</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
       <c r="C17" s="2">
         <v>2618.9699999999998</v>
       </c>
@@ -621,7 +710,9 @@
       <c r="A18" s="1">
         <v>45200.291805555556</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
       <c r="C18" s="2">
         <v>2633.12</v>
       </c>
@@ -633,7 +724,9 @@
       <c r="A19" s="1">
         <v>45200.250138888892</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
       <c r="C19" s="2">
         <v>2651.49</v>
       </c>
@@ -645,7 +738,9 @@
       <c r="A20" s="1">
         <v>45200.208472222221</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
       <c r="C20" s="2">
         <v>2673.55</v>
       </c>
@@ -657,7 +752,9 @@
       <c r="A21" s="1">
         <v>45200.166805555556</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
       <c r="C21" s="2">
         <v>2685.13</v>
       </c>
@@ -669,7 +766,9 @@
       <c r="A22" s="1">
         <v>45200.125138888892</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
       <c r="C22" s="2">
         <v>2688.1</v>
       </c>
@@ -681,7 +780,9 @@
       <c r="A23" s="1">
         <v>45200.083472222221</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
       <c r="C23" s="2">
         <v>2681.77</v>
       </c>
@@ -693,7 +794,9 @@
       <c r="A24" s="1">
         <v>45200.041805555556</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
       <c r="C24" s="2">
         <v>2675.49</v>
       </c>
@@ -705,7 +808,9 @@
       <c r="A25" s="1">
         <v>45200.000138888892</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
       <c r="C25" s="2">
         <v>2665.36</v>
       </c>
@@ -715,13 +820,17 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45216.000138888892</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
       <c r="C27" s="2">
         <v>2501.15</v>
       </c>
@@ -733,7 +842,9 @@
       <c r="A28" s="1">
         <v>45216.041805555556</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
       <c r="C28" s="2">
         <v>2513.98</v>
       </c>
@@ -745,7 +856,9 @@
       <c r="A29" s="1">
         <v>45216.083472222221</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
       <c r="C29" s="2">
         <v>2534.8200000000002</v>
       </c>
@@ -757,7 +870,9 @@
       <c r="A30" s="1">
         <v>45216.125138888892</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
       <c r="C30" s="2">
         <v>2544.7600000000002</v>
       </c>
@@ -769,7 +884,9 @@
       <c r="A31" s="1">
         <v>45216.166805555556</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
       <c r="C31" s="2">
         <v>2531.2600000000002</v>
       </c>
@@ -781,7 +898,9 @@
       <c r="A32" s="1">
         <v>45216.208472222221</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
       <c r="C32" s="2">
         <v>2520.9499999999998</v>
       </c>
@@ -793,7 +912,9 @@
       <c r="A33" s="1">
         <v>45216.250138888892</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
       <c r="C33" s="2">
         <v>2513.4699999999998</v>
       </c>
@@ -805,7 +926,9 @@
       <c r="A34" s="1">
         <v>45216.291805555556</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
       <c r="C34" s="2">
         <v>2508.5500000000002</v>
       </c>
@@ -817,7 +940,9 @@
       <c r="A35" s="1">
         <v>45216.333472222221</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
       <c r="C35" s="2">
         <v>2503.48</v>
       </c>
@@ -829,7 +954,9 @@
       <c r="A36" s="1">
         <v>45216.375138888892</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
       <c r="C36" s="2">
         <v>2500.9699999999998</v>
       </c>
@@ -841,7 +968,9 @@
       <c r="A37" s="1">
         <v>45216.416805555556</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
       <c r="C37" s="2">
         <v>2498.13</v>
       </c>
@@ -853,7 +982,9 @@
       <c r="A38" s="1">
         <v>45216.458472222221</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
       <c r="C38" s="2">
         <v>2496.67</v>
       </c>
@@ -865,7 +996,9 @@
       <c r="A39" s="1">
         <v>45216.500138888892</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
       <c r="C39" s="2">
         <v>2494.98</v>
       </c>
@@ -877,7 +1010,9 @@
       <c r="A40" s="1">
         <v>45216.541805555556</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
       <c r="C40" s="2">
         <v>2493.7600000000002</v>
       </c>
@@ -889,7 +1024,9 @@
       <c r="A41" s="1">
         <v>45216.583472222221</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
       <c r="C41" s="2">
         <v>2492.5100000000002</v>
       </c>
@@ -901,7 +1038,9 @@
       <c r="A42" s="1">
         <v>45216.625138888892</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
       <c r="C42" s="2">
         <v>2491.7600000000002</v>
       </c>
@@ -913,7 +1052,9 @@
       <c r="A43" s="1">
         <v>45216.666805555556</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
       <c r="C43" s="2">
         <v>2533.7600000000002</v>
       </c>
@@ -925,7 +1066,9 @@
       <c r="A44" s="1">
         <v>45216.708472222221</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
       <c r="C44" s="2">
         <v>2594.2199999999998</v>
       </c>
@@ -937,7 +1080,9 @@
       <c r="A45" s="1">
         <v>45216.750138888892</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
       <c r="C45" s="2">
         <v>2630.5</v>
       </c>
@@ -949,7 +1094,9 @@
       <c r="A46" s="1">
         <v>45216.791805555556</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
       <c r="C46" s="2">
         <v>2633.59</v>
       </c>
@@ -961,7 +1108,9 @@
       <c r="A47" s="1">
         <v>45216.833472222221</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
       <c r="C47" s="2">
         <v>2629.91</v>
       </c>
@@ -973,7 +1122,9 @@
       <c r="A48" s="1">
         <v>45216.875138888892</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
       <c r="C48" s="2">
         <v>2635.57</v>
       </c>
@@ -985,7 +1136,9 @@
       <c r="A49" s="1">
         <v>45216.916805555556</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
       <c r="C49" s="2">
         <v>2644.77</v>
       </c>
@@ -997,7 +1150,9 @@
       <c r="A50" s="1">
         <v>45216.958472222221</v>
       </c>
-      <c r="B50" s="1"/>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
       <c r="C50" s="2">
         <v>2660.85</v>
       </c>
@@ -1009,7 +1164,9 @@
       <c r="A51" s="1">
         <v>45217.000138888892</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
       <c r="C51" s="2">
         <v>2675.74</v>
       </c>
@@ -1021,7 +1178,9 @@
       <c r="A52" s="1">
         <v>45217.041805555556</v>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
       <c r="C52" s="2">
         <v>2682.38</v>
       </c>
@@ -1033,7 +1192,9 @@
       <c r="A53" s="1">
         <v>45217.083472222221</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
       <c r="C53" s="2">
         <v>2687.69</v>
       </c>
@@ -1045,7 +1206,9 @@
       <c r="A54" s="1">
         <v>45217.125138888892</v>
       </c>
-      <c r="B54" s="1"/>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
       <c r="C54" s="2">
         <v>2682.13</v>
       </c>
@@ -1057,7 +1220,9 @@
       <c r="A55" s="1">
         <v>45217.166805555556</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
       <c r="C55" s="2">
         <v>2663.9</v>
       </c>
@@ -1069,7 +1234,9 @@
       <c r="A56" s="1">
         <v>45217.208472222221</v>
       </c>
-      <c r="B56" s="1"/>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
       <c r="C56" s="2">
         <v>2638.23</v>
       </c>
@@ -1081,7 +1248,9 @@
       <c r="A57" s="1">
         <v>45217.250138888892</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
       <c r="C57" s="2">
         <v>2602.34</v>
       </c>
@@ -1093,7 +1262,9 @@
       <c r="A58" s="1">
         <v>45217.291805555556</v>
       </c>
-      <c r="B58" s="1"/>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
       <c r="C58" s="2">
         <v>2577.5500000000002</v>
       </c>
@@ -1105,7 +1276,9 @@
       <c r="A59" s="1">
         <v>45217.333472222221</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
       <c r="C59" s="2">
         <v>2552.73</v>
       </c>
@@ -1117,7 +1290,9 @@
       <c r="A60" s="1">
         <v>45217.375138888892</v>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
       <c r="C60" s="2">
         <v>2534.1799999999998</v>
       </c>
@@ -1129,7 +1304,9 @@
       <c r="A61" s="1">
         <v>45217.416805555556</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
       </c>
@@ -1141,7 +1318,9 @@
       <c r="A62" s="1">
         <v>45217.458472222221</v>
       </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1332,9 @@
       <c r="A63" s="1">
         <v>45217.500138888892</v>
       </c>
-      <c r="B63" s="1"/>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1346,9 @@
       <c r="A64" s="1">
         <v>45217.541805555556</v>
       </c>
-      <c r="B64" s="1"/>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
@@ -1173,11 +1356,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45217.583472222221</v>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
       <c r="C65" s="2">
         <v>2490</v>
       </c>
@@ -1185,11 +1370,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45217.625138888892</v>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1197,11 +1384,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45217.666805555556</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1398,268 @@
         <v>16</v>
       </c>
     </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45217.708472222221</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2486</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45217.750138888892</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45217.791805555556</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45217.833472222221</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45217.875138888892</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45217.916805555556</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45217.958472222221</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45218.000138888892</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>2572.96</v>
+      </c>
+      <c r="D75">
+        <v>544.69000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45218.041805555556</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>2612.63</v>
+      </c>
+      <c r="D76">
+        <v>688.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45218.083472222221</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>2638.77</v>
+      </c>
+      <c r="D77">
+        <v>792.09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45218.125138888892</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>2620.2399999999998</v>
+      </c>
+      <c r="D78">
+        <v>718.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45218.166805555556</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>2611.21</v>
+      </c>
+      <c r="D79">
+        <v>683.41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45218.208472222221</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>2604.65</v>
+      </c>
+      <c r="D80">
+        <v>658.61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45218.250138888892</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>2574.59</v>
+      </c>
+      <c r="D81">
+        <v>550.30999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45218.291805555556</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>2552.6799999999998</v>
+      </c>
+      <c r="D82">
+        <v>476.96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45218.333472222221</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <v>2536.4499999999998</v>
+      </c>
+      <c r="D83">
+        <v>425.69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45218.375138888892</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>2525.12</v>
+      </c>
+      <c r="D84">
+        <v>391.47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45218.416805555556</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>2517.52</v>
+      </c>
+      <c r="D85">
+        <v>369.24</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CFC33205-E744-4B21-9242-C7E9B8A52CA3}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B3D43C0-FBFA-4958-807F-552038D12C7A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,6 +1657,76 @@
         <v>369.24</v>
       </c>
     </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45218.458472222221</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>2511.58</v>
+      </c>
+      <c r="D86">
+        <v>352.28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45218.500138888892</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>2506.9</v>
+      </c>
+      <c r="D87">
+        <v>339.18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45218.541805555556</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>2503.39</v>
+      </c>
+      <c r="D88">
+        <v>329.49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45218.583472222221</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>2500.2199999999998</v>
+      </c>
+      <c r="D89">
+        <v>320.85000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45218.625138888892</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>2498.85</v>
+      </c>
+      <c r="D90">
+        <v>317.14999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B3D43C0-FBFA-4958-807F-552038D12C7A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{591CB351-F040-450F-9FC5-368962624856}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -78,21 +78,12 @@
     <t>289.31</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>2484.83</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t>2488.35</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>2489.8</t>
   </si>
   <si>
@@ -124,6 +115,54 @@
   </si>
   <si>
     <t>362.20</t>
+  </si>
+  <si>
+    <t>2544.56</t>
+  </si>
+  <si>
+    <t>2588.19</t>
+  </si>
+  <si>
+    <t>2630.03</t>
+  </si>
+  <si>
+    <t>2650.95</t>
+  </si>
+  <si>
+    <t>2664.42</t>
+  </si>
+  <si>
+    <t>899.71</t>
+  </si>
+  <si>
+    <t>2664.32</t>
+  </si>
+  <si>
+    <t>899.28</t>
+  </si>
+  <si>
+    <t>2673.72</t>
+  </si>
+  <si>
+    <t>2681.51</t>
+  </si>
+  <si>
+    <t>450.97</t>
+  </si>
+  <si>
+    <t>598.21</t>
+  </si>
+  <si>
+    <t>756.83</t>
+  </si>
+  <si>
+    <t>842.41</t>
+  </si>
+  <si>
+    <t>940.25</t>
+  </si>
+  <si>
+    <t>974.83</t>
   </si>
 </sst>
 </file>
@@ -165,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,6 +213,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,14 +1442,14 @@
       <c r="A68" s="1">
         <v>45217.708472222221</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>17</v>
+      <c r="B68" s="3">
+        <v>0.4</v>
       </c>
       <c r="C68" s="2">
         <v>2486</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -1417,14 +1457,14 @@
       <c r="A69" s="1">
         <v>45217.750138888892</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>19</v>
+      <c r="B69" s="3">
+        <v>0.6</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E69" s="2"/>
     </row>
@@ -1432,14 +1472,14 @@
       <c r="A70" s="1">
         <v>45217.791805555556</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>21</v>
+      <c r="B70" s="3">
+        <v>0.2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2"/>
     </row>
@@ -1451,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E71" s="2"/>
     </row>
@@ -1466,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E72" s="2"/>
     </row>
@@ -1481,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -1496,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E74" s="2"/>
     </row>
@@ -1510,10 +1550,10 @@
       <c r="B75" s="3">
         <v>0</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>2572.96</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>544.69000000000005</v>
       </c>
     </row>
@@ -1524,10 +1564,10 @@
       <c r="B76" s="3">
         <v>0</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>2612.63</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>688.83</v>
       </c>
     </row>
@@ -1538,10 +1578,10 @@
       <c r="B77" s="3">
         <v>0</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>2638.77</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>792.09</v>
       </c>
     </row>
@@ -1552,10 +1592,10 @@
       <c r="B78" s="3">
         <v>0</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>2620.2399999999998</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>718.22</v>
       </c>
     </row>
@@ -1566,10 +1606,10 @@
       <c r="B79" s="3">
         <v>0</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>2611.21</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>683.41</v>
       </c>
     </row>
@@ -1580,10 +1620,10 @@
       <c r="B80" s="3">
         <v>0</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>2604.65</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>658.61</v>
       </c>
     </row>
@@ -1594,10 +1634,10 @@
       <c r="B81" s="3">
         <v>0</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>2574.59</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>550.30999999999995</v>
       </c>
     </row>
@@ -1608,10 +1648,10 @@
       <c r="B82" s="3">
         <v>0</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>2552.6799999999998</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>476.96</v>
       </c>
     </row>
@@ -1619,13 +1659,13 @@
       <c r="A83" s="1">
         <v>45218.333472222221</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83">
+      <c r="B83" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C83" s="2">
         <v>2536.4499999999998</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>425.69</v>
       </c>
     </row>
@@ -1636,10 +1676,10 @@
       <c r="B84" s="3">
         <v>0</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>2525.12</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>391.47</v>
       </c>
     </row>
@@ -1650,10 +1690,10 @@
       <c r="B85" s="3">
         <v>0</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>2517.52</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <v>369.24</v>
       </c>
     </row>
@@ -1664,10 +1704,10 @@
       <c r="B86" s="3">
         <v>0</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>2511.58</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <v>352.28</v>
       </c>
     </row>
@@ -1678,10 +1718,10 @@
       <c r="B87" s="3">
         <v>0</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>2506.9</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>339.18</v>
       </c>
     </row>
@@ -1692,10 +1732,10 @@
       <c r="B88" s="3">
         <v>0</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>2503.39</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>329.49</v>
       </c>
     </row>
@@ -1706,10 +1746,10 @@
       <c r="B89" s="3">
         <v>0</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>2500.2199999999998</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <v>320.85000000000002</v>
       </c>
     </row>
@@ -1720,11 +1760,389 @@
       <c r="B90" s="3">
         <v>0</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>2498.85</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <v>317.14999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45218.666805555556</v>
+      </c>
+      <c r="B91" s="4">
+        <v>16</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45218.708472222221</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45218.750138888892</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45218.791805555556</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45218.833472222221</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45218.875138888892</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45218.916805555556</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45218.958472222221</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45219.000138888892</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>2686.77</v>
+      </c>
+      <c r="D99">
+        <v>998.51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45219.041805555556</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>2690.66</v>
+      </c>
+      <c r="D100">
+        <v>1016.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45219.083472222221</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>2694.21</v>
+      </c>
+      <c r="D101">
+        <v>1032.43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45219.125138888892</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>2695.6</v>
+      </c>
+      <c r="D102">
+        <v>1038.82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45219.166805555556</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>2698.4</v>
+      </c>
+      <c r="D103">
+        <v>1051.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45219.208472222221</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>2677.4</v>
+      </c>
+      <c r="D104">
+        <v>956.52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45219.250138888892</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>2657.74</v>
+      </c>
+      <c r="D105">
+        <v>871.09</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45219.291805555556</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>2618.48</v>
+      </c>
+      <c r="D106">
+        <v>711.37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45219.333472222221</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>2586.8000000000002</v>
+      </c>
+      <c r="D107">
+        <v>593.24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45219.375138888892</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>2563.1799999999998</v>
+      </c>
+      <c r="D108">
+        <v>511.52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45219.416805555556</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>2545.5</v>
+      </c>
+      <c r="D109">
+        <v>453.95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45219.458472222221</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>2594.6</v>
+      </c>
+      <c r="D110">
+        <v>621.42999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45219.500138888892</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>2632.58</v>
+      </c>
+      <c r="D111">
+        <v>767.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45219.541805555556</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>2654.63</v>
+      </c>
+      <c r="D112">
+        <v>857.91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45219.583472222221</v>
+      </c>
+      <c r="B113">
+        <v>0.2</v>
+      </c>
+      <c r="C113">
+        <v>2668.66</v>
+      </c>
+      <c r="D113">
+        <v>918.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45219.625138888892</v>
+      </c>
+      <c r="B114">
+        <v>1.4</v>
+      </c>
+      <c r="C114">
+        <v>2674.84</v>
+      </c>
+      <c r="D114">
+        <v>945.19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45219.666805555556</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>2685.5</v>
+      </c>
+      <c r="D115">
+        <v>992.77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45219.708472222221</v>
+      </c>
+      <c r="B116">
+        <v>4.8</v>
+      </c>
+      <c r="C116">
+        <v>2690.22</v>
+      </c>
+      <c r="D116">
+        <v>1014.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45219.750138888892</v>
+      </c>
+      <c r="B117">
+        <v>15.4</v>
+      </c>
+      <c r="C117">
+        <v>2693.99</v>
+      </c>
+      <c r="D117">
+        <v>1031.42</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{591CB351-F040-450F-9FC5-368962624856}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2BA011EC-9CA9-4F1C-9082-CF1566AD1448}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -163,6 +163,42 @@
   </si>
   <si>
     <t>974.83</t>
+  </si>
+  <si>
+    <t>1,035,46</t>
+  </si>
+  <si>
+    <t>1,033,39</t>
+  </si>
+  <si>
+    <t>1,030,91</t>
+  </si>
+  <si>
+    <t>1,027,56</t>
+  </si>
+  <si>
+    <t>1,032,11</t>
+  </si>
+  <si>
+    <t>1,032,52</t>
+  </si>
+  <si>
+    <t>1,036,61</t>
+  </si>
+  <si>
+    <t>1,036,84</t>
+  </si>
+  <si>
+    <t>1,033,67</t>
+  </si>
+  <si>
+    <t>1,036,56</t>
+  </si>
+  <si>
+    <t>1,039,70</t>
+  </si>
+  <si>
+    <t>1,007,40</t>
   </si>
 </sst>
 </file>
@@ -494,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,7 +1925,7 @@
       <c r="C99">
         <v>2686.77</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>998.51</v>
       </c>
     </row>
@@ -1903,7 +1939,7 @@
       <c r="C100">
         <v>2690.66</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>1016.18</v>
       </c>
     </row>
@@ -1917,7 +1953,7 @@
       <c r="C101">
         <v>2694.21</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>1032.43</v>
       </c>
     </row>
@@ -1931,7 +1967,7 @@
       <c r="C102">
         <v>2695.6</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>1038.82</v>
       </c>
     </row>
@@ -1945,7 +1981,7 @@
       <c r="C103">
         <v>2698.4</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>1051.75</v>
       </c>
     </row>
@@ -1959,7 +1995,7 @@
       <c r="C104">
         <v>2677.4</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>956.52</v>
       </c>
     </row>
@@ -1973,7 +2009,7 @@
       <c r="C105">
         <v>2657.74</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>871.09</v>
       </c>
     </row>
@@ -1987,7 +2023,7 @@
       <c r="C106">
         <v>2618.48</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>711.37</v>
       </c>
     </row>
@@ -2001,7 +2037,7 @@
       <c r="C107">
         <v>2586.8000000000002</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
         <v>593.24</v>
       </c>
     </row>
@@ -2015,7 +2051,7 @@
       <c r="C108">
         <v>2563.1799999999998</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <v>511.52</v>
       </c>
     </row>
@@ -2029,7 +2065,7 @@
       <c r="C109">
         <v>2545.5</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>453.95</v>
       </c>
     </row>
@@ -2043,7 +2079,7 @@
       <c r="C110">
         <v>2594.6</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>621.42999999999995</v>
       </c>
     </row>
@@ -2057,7 +2093,7 @@
       <c r="C111">
         <v>2632.58</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>767.05</v>
       </c>
     </row>
@@ -2071,7 +2107,7 @@
       <c r="C112">
         <v>2654.63</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>857.91</v>
       </c>
     </row>
@@ -2079,13 +2115,13 @@
       <c r="A113" s="1">
         <v>45219.583472222221</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>0.2</v>
       </c>
       <c r="C113">
         <v>2668.66</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>918.1</v>
       </c>
     </row>
@@ -2093,13 +2129,13 @@
       <c r="A114" s="1">
         <v>45219.625138888892</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>1.4</v>
       </c>
       <c r="C114">
         <v>2674.84</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="2">
         <v>945.19</v>
       </c>
     </row>
@@ -2107,13 +2143,13 @@
       <c r="A115" s="1">
         <v>45219.666805555556</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>0</v>
       </c>
       <c r="C115">
         <v>2685.5</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>992.77</v>
       </c>
     </row>
@@ -2121,13 +2157,13 @@
       <c r="A116" s="1">
         <v>45219.708472222221</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>4.8</v>
       </c>
       <c r="C116">
         <v>2690.22</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>1014.17</v>
       </c>
     </row>
@@ -2135,14 +2171,308 @@
       <c r="A117" s="1">
         <v>45219.750138888892</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>15.4</v>
       </c>
       <c r="C117">
         <v>2693.99</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>1031.42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45219.791805555556</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>2694.87</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45219.833472222221</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2694.42</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45219.875138888892</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>2693.88</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45219.916805555556</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>2693.15</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45219.958472222221</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>2694.14</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45220.000138888892</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2694.23</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45220.041805555556</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2695.12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45220.083472222221</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2695.17</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45220.125138888892</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2694.48</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45220.166805555556</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2695.11</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45220.208472222221</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2695.79</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45220.250138888892</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2688.73</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45220.291805555556</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2675.68</v>
+      </c>
+      <c r="D130" s="2">
+        <v>948.91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45220.333472222221</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2653.94</v>
+      </c>
+      <c r="D131" s="2">
+        <v>854.99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45220.375138888892</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2613.44</v>
+      </c>
+      <c r="D132" s="2">
+        <v>691.93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45220.416805555556</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2585.46</v>
+      </c>
+      <c r="D133" s="2">
+        <v>588.46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45220.458472222221</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2563.37</v>
+      </c>
+      <c r="D134" s="2">
+        <v>512.15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45220.500138888892</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2546.6799999999998</v>
+      </c>
+      <c r="D135" s="2">
+        <v>457.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45220.541805555556</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2533.69</v>
+      </c>
+      <c r="D136" s="2">
+        <v>417.23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45220.583472222221</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2524.34</v>
+      </c>
+      <c r="D137" s="2">
+        <v>389.16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45220.625138888892</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2">
+        <v>2519.44</v>
+      </c>
+      <c r="D138" s="2">
+        <v>374.8</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2BA011EC-9CA9-4F1C-9082-CF1566AD1448}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{424A52A4-9B49-42AE-85F2-4E0F034C2CA8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G142" sqref="F142:G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,6 +2475,348 @@
         <v>374.8</v>
       </c>
     </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45220.666805555556</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>2513.71</v>
+      </c>
+      <c r="D139">
+        <v>358.32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45220.708472222221</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>2530.58</v>
+      </c>
+      <c r="D140">
+        <v>407.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45220.750138888892</v>
+      </c>
+      <c r="B141" s="4">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>2551.1799999999998</v>
+      </c>
+      <c r="D141">
+        <v>472.11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45220.791805555556</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>2563.66</v>
+      </c>
+      <c r="D142">
+        <v>513.13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45220.833472222221</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>2557.44</v>
+      </c>
+      <c r="D143">
+        <v>492.49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45220.875138888892</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>2570.4899999999998</v>
+      </c>
+      <c r="D144">
+        <v>536.23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45220.916805555556</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>2587.8200000000002</v>
+      </c>
+      <c r="D145">
+        <v>596.89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45220.958472222221</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>2611.34</v>
+      </c>
+      <c r="D146">
+        <v>683.91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45221.000138888892</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>2627.71</v>
+      </c>
+      <c r="D147">
+        <v>747.61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45221.041805555556</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>2638.93</v>
+      </c>
+      <c r="D148">
+        <v>792.74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45221.083472222221</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>2647.17</v>
+      </c>
+      <c r="D149">
+        <v>826.65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45221.125138888892</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>2640.45</v>
+      </c>
+      <c r="D150">
+        <v>798.95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45221.166805555556</v>
+      </c>
+      <c r="B151" s="4">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>2614.67</v>
+      </c>
+      <c r="D151">
+        <v>696.66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45221.208472222221</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>2590.0700000000002</v>
+      </c>
+      <c r="D152">
+        <v>604.99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45221.250138888892</v>
+      </c>
+      <c r="B153" s="4">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>2567.58</v>
+      </c>
+      <c r="D153">
+        <v>526.33000000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45221.291805555556</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>2548.31</v>
+      </c>
+      <c r="D154">
+        <v>462.89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45221.333472222221</v>
+      </c>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>2535.8000000000002</v>
+      </c>
+      <c r="D155">
+        <v>423.69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45221.375138888892</v>
+      </c>
+      <c r="B156" s="4">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>2525.19</v>
+      </c>
+      <c r="D156">
+        <v>391.68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45221.416805555556</v>
+      </c>
+      <c r="B157">
+        <v>7.2</v>
+      </c>
+      <c r="C157">
+        <v>2517.73</v>
+      </c>
+      <c r="D157">
+        <v>369.85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45221.458472222221</v>
+      </c>
+      <c r="B158">
+        <v>0.6</v>
+      </c>
+      <c r="C158">
+        <v>2512.66</v>
+      </c>
+      <c r="D158">
+        <v>355.34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45221.500138888892</v>
+      </c>
+      <c r="B159">
+        <v>1.4</v>
+      </c>
+      <c r="C159">
+        <v>2509.39</v>
+      </c>
+      <c r="D159">
+        <v>346.12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45221.541805555556</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160">
+        <v>2507.39</v>
+      </c>
+      <c r="D160">
+        <v>340.54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45221.583472222221</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161">
+        <v>2504.36</v>
+      </c>
+      <c r="D161">
+        <v>332.15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45221.625138888892</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162">
+        <v>2501.38</v>
+      </c>
+      <c r="D162">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45221.666805555556</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163">
+        <v>2500.15</v>
+      </c>
+      <c r="D163">
+        <v>320.66000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{424A52A4-9B49-42AE-85F2-4E0F034C2CA8}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8FF50271-C99C-474D-A45C-751626D95F77}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G142" sqref="F142:G142"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2731,7 @@
       <c r="A157" s="1">
         <v>45221.416805555556</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <v>7.2</v>
       </c>
       <c r="C157">
@@ -2745,7 +2745,7 @@
       <c r="A158" s="1">
         <v>45221.458472222221</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
         <v>0.6</v>
       </c>
       <c r="C158">
@@ -2759,7 +2759,7 @@
       <c r="A159" s="1">
         <v>45221.500138888892</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <v>1.4</v>
       </c>
       <c r="C159">
@@ -2773,7 +2773,9 @@
       <c r="A160" s="1">
         <v>45221.541805555556</v>
       </c>
-      <c r="B160" s="1"/>
+      <c r="B160" s="4">
+        <v>0</v>
+      </c>
       <c r="C160">
         <v>2507.39</v>
       </c>
@@ -2785,7 +2787,9 @@
       <c r="A161" s="1">
         <v>45221.583472222221</v>
       </c>
-      <c r="B161" s="1"/>
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
       <c r="C161">
         <v>2504.36</v>
       </c>
@@ -2797,7 +2801,9 @@
       <c r="A162" s="1">
         <v>45221.625138888892</v>
       </c>
-      <c r="B162" s="1"/>
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
       <c r="C162">
         <v>2501.38</v>
       </c>
@@ -2809,12 +2815,238 @@
       <c r="A163" s="1">
         <v>45221.666805555556</v>
       </c>
-      <c r="B163" s="1"/>
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
       <c r="C163">
         <v>2500.15</v>
       </c>
       <c r="D163">
         <v>320.66000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45221.708472222221</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>2499.02</v>
+      </c>
+      <c r="D164">
+        <v>317.61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45221.750138888892</v>
+      </c>
+      <c r="B165" s="4">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>2498.2600000000002</v>
+      </c>
+      <c r="D165">
+        <v>315.57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45221.791805555556</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>2498.0300000000002</v>
+      </c>
+      <c r="D166">
+        <v>314.95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45221.833472222221</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>2497.56</v>
+      </c>
+      <c r="D167">
+        <v>313.69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45221.875138888892</v>
+      </c>
+      <c r="B168" s="4">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>2496.77</v>
+      </c>
+      <c r="D168">
+        <v>311.57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45221.916805555556</v>
+      </c>
+      <c r="B169" s="4">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>2496.08</v>
+      </c>
+      <c r="D169">
+        <v>309.73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45221.958472222221</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>2495.7800000000002</v>
+      </c>
+      <c r="D170">
+        <v>308.93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45222.000138888892</v>
+      </c>
+      <c r="B171" s="4">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>2495.5300000000002</v>
+      </c>
+      <c r="D171">
+        <v>308.27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45222.041805555556</v>
+      </c>
+      <c r="B172" s="4">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>2494.85</v>
+      </c>
+      <c r="D172">
+        <v>306.45999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45222.083472222221</v>
+      </c>
+      <c r="B173" s="4">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>2495.0500000000002</v>
+      </c>
+      <c r="D173">
+        <v>306.99</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45222.125138888892</v>
+      </c>
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>2494.61</v>
+      </c>
+      <c r="D174">
+        <v>305.82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45222.166805555556</v>
+      </c>
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>2493.87</v>
+      </c>
+      <c r="D175">
+        <v>303.87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45222.208472222221</v>
+      </c>
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>2494.1799999999998</v>
+      </c>
+      <c r="D176">
+        <v>304.69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45222.250138888892</v>
+      </c>
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>2495.17</v>
+      </c>
+      <c r="D177">
+        <v>307.31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45222.291805555556</v>
+      </c>
+      <c r="B178">
+        <v>12.4</v>
+      </c>
+      <c r="C178">
+        <v>2495.94</v>
+      </c>
+      <c r="D178">
+        <v>309.36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45222.333472222221</v>
+      </c>
+      <c r="B179">
+        <v>9.4</v>
+      </c>
+      <c r="C179">
+        <v>2496.2600000000002</v>
+      </c>
+      <c r="D179">
+        <v>310.20999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8FF50271-C99C-474D-A45C-751626D95F77}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2FF36AD-DB58-4705-9CA2-A60A0FD2677B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,7 +3025,7 @@
       <c r="A178" s="1">
         <v>45222.291805555556</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <v>12.4</v>
       </c>
       <c r="C178">
@@ -3039,7 +3039,7 @@
       <c r="A179" s="1">
         <v>45222.333472222221</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
         <v>9.4</v>
       </c>
       <c r="C179">
@@ -3047,6 +3047,132 @@
       </c>
       <c r="D179">
         <v>310.20999999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45222.375138888892</v>
+      </c>
+      <c r="B180" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C180">
+        <v>2495.7399999999998</v>
+      </c>
+      <c r="D180">
+        <v>308.83</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45222.416805555556</v>
+      </c>
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>2496.2399999999998</v>
+      </c>
+      <c r="D181">
+        <v>310.16000000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45222.458472222221</v>
+      </c>
+      <c r="B182" s="4">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>2496.35</v>
+      </c>
+      <c r="D182">
+        <v>310.45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45222.500138888892</v>
+      </c>
+      <c r="B183" s="4">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>2496.19</v>
+      </c>
+      <c r="D183">
+        <v>310.02</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45222.541805555556</v>
+      </c>
+      <c r="B184" s="4">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>2496.09</v>
+      </c>
+      <c r="D184">
+        <v>309.76</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45222.583472222221</v>
+      </c>
+      <c r="B185" s="4">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>2496.25</v>
+      </c>
+      <c r="D185">
+        <v>310.18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45222.625138888892</v>
+      </c>
+      <c r="B186" s="4">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>2495.96</v>
+      </c>
+      <c r="D186">
+        <v>309.41000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45222.666805555556</v>
+      </c>
+      <c r="B187" s="4">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>2496.4</v>
+      </c>
+      <c r="D187">
+        <v>310.58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45222.708472222221</v>
+      </c>
+      <c r="B188" s="4">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>2495.5</v>
+      </c>
+      <c r="D188">
+        <v>308.19</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2FF36AD-DB58-4705-9CA2-A60A0FD2677B}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2BF0CC92-5145-4592-B57C-48ACF502C0C3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3175,6 +3175,230 @@
         <v>308.19</v>
       </c>
     </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45222.750138888892</v>
+      </c>
+      <c r="B189" s="4">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>2495.64</v>
+      </c>
+      <c r="D189">
+        <v>308.56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45222.791805555556</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>2494.67</v>
+      </c>
+      <c r="D190">
+        <v>305.98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45222.833472222221</v>
+      </c>
+      <c r="B191" s="4">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>2493.66</v>
+      </c>
+      <c r="D191">
+        <v>303.31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45222.875138888892</v>
+      </c>
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>2493.0100000000002</v>
+      </c>
+      <c r="D192">
+        <v>301.60000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45222.916805555556</v>
+      </c>
+      <c r="B193" s="4">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>2492.69</v>
+      </c>
+      <c r="D193">
+        <v>300.76</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45222.958472222221</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>2492</v>
+      </c>
+      <c r="D194">
+        <v>298.94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45223.000138888892</v>
+      </c>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>2491.61</v>
+      </c>
+      <c r="D195">
+        <v>297.92</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45223.041805555556</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>2491.19</v>
+      </c>
+      <c r="D196">
+        <v>296.82</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45223.083472222221</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>2490.7600000000002</v>
+      </c>
+      <c r="D197">
+        <v>295.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45223.125138888892</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>2506.65</v>
+      </c>
+      <c r="D198">
+        <v>338.48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45223.166805555556</v>
+      </c>
+      <c r="B199" s="4">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>2505.5</v>
+      </c>
+      <c r="D199">
+        <v>335.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45223.208472222221</v>
+      </c>
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>2502.08</v>
+      </c>
+      <c r="D200">
+        <v>325.91000000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45223.250138888892</v>
+      </c>
+      <c r="B201" s="4">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>2499.75</v>
+      </c>
+      <c r="D201">
+        <v>319.58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45223.291805555556</v>
+      </c>
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>2496.98</v>
+      </c>
+      <c r="D202">
+        <v>312.13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45223.333472222221</v>
+      </c>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>2495.39</v>
+      </c>
+      <c r="D203">
+        <v>307.89</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45223.375138888892</v>
+      </c>
+      <c r="B204" s="4">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>2494.19</v>
+      </c>
+      <c r="D204">
+        <v>304.70999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2BF0CC92-5145-4592-B57C-48ACF502C0C3}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{88138B9F-4661-44F3-B963-9811F6329FD5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H204" sqref="H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,6 +3399,118 @@
         <v>304.70999999999998</v>
       </c>
     </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45223.416805555556</v>
+      </c>
+      <c r="B205" s="4">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>2493.54</v>
+      </c>
+      <c r="D205">
+        <v>302.99</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45223.458472222221</v>
+      </c>
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>2492.98</v>
+      </c>
+      <c r="D206">
+        <v>301.52</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45223.500138888892</v>
+      </c>
+      <c r="B207" s="4">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>2492.52</v>
+      </c>
+      <c r="D207">
+        <v>300.31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45223.541805555556</v>
+      </c>
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>2492.27</v>
+      </c>
+      <c r="D208">
+        <v>299.64999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45223.583472222221</v>
+      </c>
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>2492.2800000000002</v>
+      </c>
+      <c r="D209">
+        <v>299.68</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45223.625138888892</v>
+      </c>
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>2492.4699999999998</v>
+      </c>
+      <c r="D210">
+        <v>300.18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45223.666805555556</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>2493.1</v>
+      </c>
+      <c r="D211">
+        <v>301.83</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45223.708472222221</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>2492.2600000000002</v>
+      </c>
+      <c r="D212">
+        <v>299.63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{88138B9F-4661-44F3-B963-9811F6329FD5}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{531F426E-8E12-4940-8B11-D0762029B6CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="H204" sqref="H204"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,6 +3511,426 @@
         <v>299.63</v>
       </c>
     </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45223.750138888892</v>
+      </c>
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>2493.02</v>
+      </c>
+      <c r="D213">
+        <v>301.62</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45223.791805555556</v>
+      </c>
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>2562.4299999999998</v>
+      </c>
+      <c r="D214">
+        <v>509.01</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45223.833472222221</v>
+      </c>
+      <c r="B215" s="4">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>2613.38</v>
+      </c>
+      <c r="D215">
+        <v>691.7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45223.875138888892</v>
+      </c>
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>2628.6</v>
+      </c>
+      <c r="D216">
+        <v>751.14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45223.916805555556</v>
+      </c>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>2585.61</v>
+      </c>
+      <c r="D217">
+        <v>588.99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45223.958472222221</v>
+      </c>
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>2561.83</v>
+      </c>
+      <c r="D218">
+        <v>507.01</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45224.000138888892</v>
+      </c>
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>2526.0500000000002</v>
+      </c>
+      <c r="D219">
+        <v>394.23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45224.041805555556</v>
+      </c>
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>2554.79</v>
+      </c>
+      <c r="D220">
+        <v>483.81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45224.083472222221</v>
+      </c>
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>2547.5300000000002</v>
+      </c>
+      <c r="D221">
+        <v>460.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45224.125138888892</v>
+      </c>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>2533.9</v>
+      </c>
+      <c r="D222">
+        <v>417.87</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45224.166805555556</v>
+      </c>
+      <c r="B223" s="4">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>2523.35</v>
+      </c>
+      <c r="D223">
+        <v>386.24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45224.208472222221</v>
+      </c>
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>2515.56</v>
+      </c>
+      <c r="D224">
+        <v>363.61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45224.250138888892</v>
+      </c>
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>2510.23</v>
+      </c>
+      <c r="D225">
+        <v>348.48</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45224.291805555556</v>
+      </c>
+      <c r="B226" s="4">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>2506.5500000000002</v>
+      </c>
+      <c r="D226">
+        <v>338.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45224.333472222221</v>
+      </c>
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>2502.87</v>
+      </c>
+      <c r="D227">
+        <v>328.07</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45224.375138888892</v>
+      </c>
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>2500.61</v>
+      </c>
+      <c r="D228">
+        <v>321.91000000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45224.416805555556</v>
+      </c>
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>2498.48</v>
+      </c>
+      <c r="D229">
+        <v>316.16000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45224.458472222221</v>
+      </c>
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>2497.1999999999998</v>
+      </c>
+      <c r="D230">
+        <v>312.72000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45224.500138888892</v>
+      </c>
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>2496.1799999999998</v>
+      </c>
+      <c r="D231">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45224.541805555556</v>
+      </c>
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>2495.25</v>
+      </c>
+      <c r="D232">
+        <v>307.52</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45224.583472222221</v>
+      </c>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>2494.1799999999998</v>
+      </c>
+      <c r="D233">
+        <v>304.69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45224.625138888892</v>
+      </c>
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>2501.86</v>
+      </c>
+      <c r="D234">
+        <v>325.31</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45224.666805555556</v>
+      </c>
+      <c r="B235" s="4">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>2537.34</v>
+      </c>
+      <c r="D235">
+        <v>428.43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>45224.708472222221</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>2596.7600000000002</v>
+      </c>
+      <c r="D236">
+        <v>629.34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45224.750138888892</v>
+      </c>
+      <c r="B237" s="4">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>2633.68</v>
+      </c>
+      <c r="D237">
+        <v>771.48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45224.791805555556</v>
+      </c>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>2654.29</v>
+      </c>
+      <c r="D238">
+        <v>856.47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45224.833472222221</v>
+      </c>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>2666.9</v>
+      </c>
+      <c r="D239">
+        <v>910.45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45224.875138888892</v>
+      </c>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>2675.89</v>
+      </c>
+      <c r="D240">
+        <v>949.83</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45224.916805555556</v>
+      </c>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>2658.91</v>
+      </c>
+      <c r="D241">
+        <v>876.07</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45224.958472222221</v>
+      </c>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>2648.91</v>
+      </c>
+      <c r="D242">
+        <v>833.9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
+++ b/dados_setor_eletrico/16090000 - UHE BALBINA JUSANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{531F426E-8E12-4940-8B11-D0762029B6CA}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0BF17A2E-5B7F-48DA-8382-79BA15091725}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -163,42 +163,6 @@
   </si>
   <si>
     <t>974.83</t>
-  </si>
-  <si>
-    <t>1,035,46</t>
-  </si>
-  <si>
-    <t>1,033,39</t>
-  </si>
-  <si>
-    <t>1,030,91</t>
-  </si>
-  <si>
-    <t>1,027,56</t>
-  </si>
-  <si>
-    <t>1,032,11</t>
-  </si>
-  <si>
-    <t>1,032,52</t>
-  </si>
-  <si>
-    <t>1,036,61</t>
-  </si>
-  <si>
-    <t>1,036,84</t>
-  </si>
-  <si>
-    <t>1,033,67</t>
-  </si>
-  <si>
-    <t>1,036,56</t>
-  </si>
-  <si>
-    <t>1,039,70</t>
-  </si>
-  <si>
-    <t>1,007,40</t>
   </si>
 </sst>
 </file>
@@ -240,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -249,7 +213,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +532,7 @@
         <v>2595.1999999999998</v>
       </c>
       <c r="D2" s="2">
-        <v>623.62</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,7 +546,7 @@
         <v>2565.13</v>
       </c>
       <c r="D3" s="2">
-        <v>518.05999999999995</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,7 +560,7 @@
         <v>2547.56</v>
       </c>
       <c r="D4" s="2">
-        <v>460.5</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,7 +574,7 @@
         <v>2528.7399999999998</v>
       </c>
       <c r="D5" s="2">
-        <v>402.26</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,7 +588,7 @@
         <v>2521.04</v>
       </c>
       <c r="D6" s="2">
-        <v>379.47</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,7 +602,7 @@
         <v>2510.15</v>
       </c>
       <c r="D7" s="2">
-        <v>348.25</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,7 +616,7 @@
         <v>2491.65</v>
       </c>
       <c r="D8" s="2">
-        <v>298.02999999999997</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +630,7 @@
         <v>2492.4899999999998</v>
       </c>
       <c r="D9" s="2">
-        <v>300.23</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +644,7 @@
         <v>2497.9499999999998</v>
       </c>
       <c r="D10" s="2">
-        <v>314.73</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,7 +658,7 @@
         <v>2507.42</v>
       </c>
       <c r="D11" s="2">
-        <v>340.62</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +672,7 @@
         <v>2519.27</v>
       </c>
       <c r="D12" s="2">
-        <v>374.31</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +686,7 @@
         <v>2532.08</v>
       </c>
       <c r="D13" s="2">
-        <v>412.34</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +700,7 @@
         <v>2546.5500000000002</v>
       </c>
       <c r="D14" s="2">
-        <v>457.28</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +714,7 @@
         <v>2565.2399999999998</v>
       </c>
       <c r="D15" s="2">
-        <v>518.42999999999995</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,7 +728,7 @@
         <v>2590.81</v>
       </c>
       <c r="D16" s="2">
-        <v>607.66</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,7 +742,7 @@
         <v>2618.9699999999998</v>
       </c>
       <c r="D17" s="2">
-        <v>713.28</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +756,7 @@
         <v>2633.12</v>
       </c>
       <c r="D18" s="2">
-        <v>769.22</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,7 +770,7 @@
         <v>2651.49</v>
       </c>
       <c r="D19" s="2">
-        <v>844.69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,7 +784,7 @@
         <v>2673.55</v>
       </c>
       <c r="D20" s="2">
-        <v>939.51</v>
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +798,7 @@
         <v>2685.13</v>
       </c>
       <c r="D21" s="2">
-        <v>991.1</v>
+        <v>991</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,7 +812,7 @@
         <v>2688.1</v>
       </c>
       <c r="D22" s="2">
-        <v>1004.54</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +840,7 @@
         <v>2675.49</v>
       </c>
       <c r="D24" s="2">
-        <v>948.07</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,7 +854,7 @@
         <v>2665.36</v>
       </c>
       <c r="D25" s="2">
-        <v>903.77</v>
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,7 +874,7 @@
         <v>2501.15</v>
       </c>
       <c r="D27" s="2">
-        <v>323.38</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,7 +888,7 @@
         <v>2513.98</v>
       </c>
       <c r="D28" s="2">
-        <v>359.09</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,7 +902,7 @@
         <v>2534.8200000000002</v>
       </c>
       <c r="D29" s="2">
-        <v>420.69</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,7 +916,7 @@
         <v>2544.7600000000002</v>
       </c>
       <c r="D30" s="2">
-        <v>451.61</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,7 +930,7 @@
         <v>2531.2600000000002</v>
       </c>
       <c r="D31" s="2">
-        <v>409.85</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,7 +944,7 @@
         <v>2520.9499999999998</v>
       </c>
       <c r="D32" s="2">
-        <v>379.2</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,7 +958,7 @@
         <v>2513.4699999999998</v>
       </c>
       <c r="D33" s="2">
-        <v>357.64</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,7 +972,7 @@
         <v>2508.5500000000002</v>
       </c>
       <c r="D34" s="2">
-        <v>343.77</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,7 +986,7 @@
         <v>2503.48</v>
       </c>
       <c r="D35" s="2">
-        <v>329.74</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,7 +1000,7 @@
         <v>2500.9699999999998</v>
       </c>
       <c r="D36" s="2">
-        <v>322.89</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,7 +1014,7 @@
         <v>2498.13</v>
       </c>
       <c r="D37" s="2">
-        <v>315.22000000000003</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1028,7 @@
         <v>2496.67</v>
       </c>
       <c r="D38" s="2">
-        <v>311.31</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,7 +1042,7 @@
         <v>2494.98</v>
       </c>
       <c r="D39" s="2">
-        <v>306.81</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,7 +1056,7 @@
         <v>2493.7600000000002</v>
       </c>
       <c r="D40" s="2">
-        <v>303.58</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1070,7 @@
         <v>2492.5100000000002</v>
       </c>
       <c r="D41" s="2">
-        <v>300.27999999999997</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,7 +1084,7 @@
         <v>2491.7600000000002</v>
       </c>
       <c r="D42" s="2">
-        <v>298.31</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,7 +1098,7 @@
         <v>2533.7600000000002</v>
       </c>
       <c r="D43" s="2">
-        <v>417.45</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,7 +1112,7 @@
         <v>2594.2199999999998</v>
       </c>
       <c r="D44" s="2">
-        <v>620.04</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,7 +1126,7 @@
         <v>2630.5</v>
       </c>
       <c r="D45" s="2">
-        <v>758.72</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,7 +1140,7 @@
         <v>2633.59</v>
       </c>
       <c r="D46" s="2">
-        <v>771.11</v>
+        <v>771</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,7 +1154,7 @@
         <v>2629.91</v>
       </c>
       <c r="D47" s="2">
-        <v>756.36</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,7 +1168,7 @@
         <v>2635.57</v>
       </c>
       <c r="D48" s="2">
-        <v>779.1</v>
+        <v>779</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,7 +1182,7 @@
         <v>2644.77</v>
       </c>
       <c r="D49" s="2">
-        <v>816.71</v>
+        <v>816</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,7 +1196,7 @@
         <v>2660.85</v>
       </c>
       <c r="D50" s="2">
-        <v>884.36</v>
+        <v>884</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,7 +1210,7 @@
         <v>2675.74</v>
       </c>
       <c r="D51" s="2">
-        <v>949.17</v>
+        <v>949</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,7 +1224,7 @@
         <v>2682.38</v>
       </c>
       <c r="D52" s="2">
-        <v>978.74</v>
+        <v>978</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1238,7 @@
         <v>2687.69</v>
       </c>
       <c r="D53" s="2">
-        <v>1002.68</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,7 +1252,7 @@
         <v>2682.13</v>
       </c>
       <c r="D54" s="2">
-        <v>977.62</v>
+        <v>977</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,7 +1266,7 @@
         <v>2663.9</v>
       </c>
       <c r="D55" s="2">
-        <v>897.47</v>
+        <v>897</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,7 +1280,7 @@
         <v>2638.23</v>
       </c>
       <c r="D56" s="2">
-        <v>789.89</v>
+        <v>789</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,7 +1294,7 @@
         <v>2602.34</v>
       </c>
       <c r="D57" s="2">
-        <v>649.98</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,7 +1308,7 @@
         <v>2577.5500000000002</v>
       </c>
       <c r="D58" s="2">
-        <v>560.59</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,7 +1322,7 @@
         <v>2552.73</v>
       </c>
       <c r="D59" s="2">
-        <v>477.12</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1373,7 +1336,7 @@
         <v>2534.1799999999998</v>
       </c>
       <c r="D60" s="2">
-        <v>418.73</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,7 +1395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45217.583472222221</v>
       </c>
@@ -1446,7 +1409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45217.625138888892</v>
       </c>
@@ -1460,7 +1423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45217.666805555556</v>
       </c>
@@ -1474,7 +1437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45217.708472222221</v>
       </c>
@@ -1487,9 +1450,8 @@
       <c r="D68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45217.750138888892</v>
       </c>
@@ -1502,9 +1464,8 @@
       <c r="D69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45217.791805555556</v>
       </c>
@@ -1517,9 +1478,8 @@
       <c r="D70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45217.833472222221</v>
       </c>
@@ -1532,9 +1492,8 @@
       <c r="D71" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45217.875138888892</v>
       </c>
@@ -1547,9 +1506,8 @@
       <c r="D72" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45217.916805555556</v>
       </c>
@@ -1562,9 +1520,8 @@
       <c r="D73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45217.958472222221</v>
       </c>
@@ -1577,9 +1534,8 @@
       <c r="D74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45218.000138888892</v>
       </c>
@@ -1590,10 +1546,10 @@
         <v>2572.96</v>
       </c>
       <c r="D75" s="2">
-        <v>544.69000000000005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45218.041805555556</v>
       </c>
@@ -1604,10 +1560,10 @@
         <v>2612.63</v>
       </c>
       <c r="D76" s="2">
-        <v>688.83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45218.083472222221</v>
       </c>
@@ -1618,10 +1574,10 @@
         <v>2638.77</v>
       </c>
       <c r="D77" s="2">
-        <v>792.09</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45218.125138888892</v>
       </c>
@@ -1632,10 +1588,10 @@
         <v>2620.2399999999998</v>
       </c>
       <c r="D78" s="2">
-        <v>718.22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45218.166805555556</v>
       </c>
@@ -1646,10 +1602,10 @@
         <v>2611.21</v>
       </c>
       <c r="D79" s="2">
-        <v>683.41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45218.208472222221</v>
       </c>
@@ -1660,7 +1616,7 @@
         <v>2604.65</v>
       </c>
       <c r="D80" s="2">
-        <v>658.61</v>
+        <v>658</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,7 +1630,7 @@
         <v>2574.59</v>
       </c>
       <c r="D81" s="2">
-        <v>550.30999999999995</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1688,7 +1644,7 @@
         <v>2552.6799999999998</v>
       </c>
       <c r="D82" s="2">
-        <v>476.96</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1702,7 +1658,7 @@
         <v>2536.4499999999998</v>
       </c>
       <c r="D83" s="2">
-        <v>425.69</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,7 +1672,7 @@
         <v>2525.12</v>
       </c>
       <c r="D84" s="2">
-        <v>391.47</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,7 +1686,7 @@
         <v>2517.52</v>
       </c>
       <c r="D85" s="2">
-        <v>369.24</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,7 +1700,7 @@
         <v>2511.58</v>
       </c>
       <c r="D86" s="2">
-        <v>352.28</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1758,7 +1714,7 @@
         <v>2506.9</v>
       </c>
       <c r="D87" s="2">
-        <v>339.18</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,7 +1728,7 @@
         <v>2503.39</v>
       </c>
       <c r="D88" s="2">
-        <v>329.49</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,7 +1742,7 @@
         <v>2500.2199999999998</v>
       </c>
       <c r="D89" s="2">
-        <v>320.85000000000002</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,14 +1756,14 @@
         <v>2498.85</v>
       </c>
       <c r="D90" s="2">
-        <v>317.14999999999998</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45218.666805555556</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>16</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -1821,7 +1777,7 @@
       <c r="A92" s="1">
         <v>45218.708472222221</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -1835,7 +1791,7 @@
       <c r="A93" s="1">
         <v>45218.750138888892</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>0</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -1849,7 +1805,7 @@
       <c r="A94" s="1">
         <v>45218.791805555556</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -1863,7 +1819,7 @@
       <c r="A95" s="1">
         <v>45218.833472222221</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>0</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -1877,7 +1833,7 @@
       <c r="A96" s="1">
         <v>45218.875138888892</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>0</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -1891,7 +1847,7 @@
       <c r="A97" s="1">
         <v>45218.916805555556</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>0</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -1905,7 +1861,7 @@
       <c r="A98" s="1">
         <v>45218.958472222221</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>0</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -1919,895 +1875,859 @@
       <c r="A99" s="1">
         <v>45219.000138888892</v>
       </c>
-      <c r="B99" s="4">
-        <v>0</v>
-      </c>
-      <c r="C99">
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
         <v>2686.77</v>
       </c>
       <c r="D99" s="2">
-        <v>998.51</v>
+        <v>998</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45219.041805555556</v>
       </c>
-      <c r="B100" s="4">
-        <v>0</v>
-      </c>
-      <c r="C100">
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
         <v>2690.66</v>
       </c>
       <c r="D100" s="2">
-        <v>1016.18</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45219.083472222221</v>
       </c>
-      <c r="B101" s="4">
-        <v>0</v>
-      </c>
-      <c r="C101">
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
         <v>2694.21</v>
       </c>
       <c r="D101" s="2">
-        <v>1032.43</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45219.125138888892</v>
       </c>
-      <c r="B102" s="4">
-        <v>0</v>
-      </c>
-      <c r="C102">
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
         <v>2695.6</v>
       </c>
       <c r="D102" s="2">
-        <v>1038.82</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45219.166805555556</v>
       </c>
-      <c r="B103" s="4">
-        <v>0</v>
-      </c>
-      <c r="C103">
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
         <v>2698.4</v>
       </c>
       <c r="D103" s="2">
-        <v>1051.75</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45219.208472222221</v>
       </c>
-      <c r="B104" s="4">
-        <v>0</v>
-      </c>
-      <c r="C104">
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
         <v>2677.4</v>
       </c>
       <c r="D104" s="2">
-        <v>956.52</v>
+        <v>956</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45219.250138888892</v>
       </c>
-      <c r="B105" s="4">
-        <v>0</v>
-      </c>
-      <c r="C105">
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
         <v>2657.74</v>
       </c>
       <c r="D105" s="2">
-        <v>871.09</v>
+        <v>871</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45219.291805555556</v>
       </c>
-      <c r="B106" s="4">
-        <v>0</v>
-      </c>
-      <c r="C106">
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2">
         <v>2618.48</v>
       </c>
       <c r="D106" s="2">
-        <v>711.37</v>
+        <v>711</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45219.333472222221</v>
       </c>
-      <c r="B107" s="4">
-        <v>0</v>
-      </c>
-      <c r="C107">
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
         <v>2586.8000000000002</v>
       </c>
       <c r="D107" s="2">
-        <v>593.24</v>
+        <v>593</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45219.375138888892</v>
       </c>
-      <c r="B108" s="4">
-        <v>0</v>
-      </c>
-      <c r="C108">
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2">
         <v>2563.1799999999998</v>
       </c>
       <c r="D108" s="2">
-        <v>511.52</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45219.416805555556</v>
       </c>
-      <c r="B109" s="4">
-        <v>0</v>
-      </c>
-      <c r="C109">
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2">
         <v>2545.5</v>
       </c>
       <c r="D109" s="2">
-        <v>453.95</v>
+        <v>453</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45219.458472222221</v>
       </c>
-      <c r="B110" s="4">
-        <v>0</v>
-      </c>
-      <c r="C110">
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
         <v>2594.6</v>
       </c>
       <c r="D110" s="2">
-        <v>621.42999999999995</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45219.500138888892</v>
       </c>
-      <c r="B111" s="4">
-        <v>0</v>
-      </c>
-      <c r="C111">
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2">
         <v>2632.58</v>
       </c>
       <c r="D111" s="2">
-        <v>767.05</v>
+        <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45219.541805555556</v>
       </c>
-      <c r="B112" s="4">
-        <v>0</v>
-      </c>
-      <c r="C112">
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2">
         <v>2654.63</v>
       </c>
       <c r="D112" s="2">
-        <v>857.91</v>
+        <v>857</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45219.583472222221</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>0.2</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>2668.66</v>
       </c>
       <c r="D113" s="2">
-        <v>918.1</v>
+        <v>918</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45219.625138888892</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>1.4</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <v>2674.84</v>
       </c>
       <c r="D114" s="2">
-        <v>945.19</v>
+        <v>945</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45219.666805555556</v>
       </c>
-      <c r="B115" s="4">
-        <v>0</v>
-      </c>
-      <c r="C115">
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2">
         <v>2685.5</v>
       </c>
       <c r="D115" s="2">
-        <v>992.77</v>
+        <v>992</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45219.708472222221</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>4.8</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <v>2690.22</v>
       </c>
       <c r="D116" s="2">
-        <v>1014.17</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45219.750138888892</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>15.4</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>2693.99</v>
       </c>
       <c r="D117" s="2">
-        <v>1031.42</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45219.791805555556</v>
       </c>
-      <c r="B118" s="4">
-        <v>0</v>
-      </c>
-      <c r="C118">
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2">
         <v>2694.87</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45219.833472222221</v>
       </c>
-      <c r="B119" s="4">
-        <v>0</v>
-      </c>
-      <c r="C119">
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2">
         <v>2694.42</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45219.875138888892</v>
       </c>
-      <c r="B120" s="4">
-        <v>0</v>
-      </c>
-      <c r="C120">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2">
         <v>2693.88</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45219.916805555556</v>
       </c>
-      <c r="B121" s="4">
-        <v>0</v>
-      </c>
-      <c r="C121">
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2">
         <v>2693.15</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45219.958472222221</v>
       </c>
-      <c r="B122" s="4">
-        <v>0</v>
-      </c>
-      <c r="C122">
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2">
         <v>2694.14</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45220.000138888892</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>0</v>
       </c>
       <c r="C123" s="2">
         <v>2694.23</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45220.041805555556</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>0</v>
       </c>
       <c r="C124" s="2">
         <v>2695.12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45220.083472222221</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <v>0</v>
       </c>
       <c r="C125" s="2">
         <v>2695.17</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45220.125138888892</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <v>0</v>
       </c>
       <c r="C126" s="2">
         <v>2694.48</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45220.166805555556</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <v>0</v>
       </c>
       <c r="C127" s="2">
         <v>2695.11</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45220.208472222221</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <v>0</v>
       </c>
       <c r="C128" s="2">
         <v>2695.79</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45220.250138888892</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="3">
         <v>0</v>
       </c>
       <c r="C129" s="2">
         <v>2688.73</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45220.291805555556</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="3">
         <v>0</v>
       </c>
       <c r="C130" s="2">
         <v>2675.68</v>
       </c>
       <c r="D130" s="2">
-        <v>948.91</v>
+        <v>948</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45220.333472222221</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <v>0</v>
       </c>
       <c r="C131" s="2">
         <v>2653.94</v>
       </c>
       <c r="D131" s="2">
-        <v>854.99</v>
+        <v>854</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45220.375138888892</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="3">
         <v>0</v>
       </c>
       <c r="C132" s="2">
         <v>2613.44</v>
       </c>
       <c r="D132" s="2">
-        <v>691.93</v>
+        <v>691</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45220.416805555556</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <v>0</v>
       </c>
       <c r="C133" s="2">
         <v>2585.46</v>
       </c>
       <c r="D133" s="2">
-        <v>588.46</v>
+        <v>588</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45220.458472222221</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <v>0</v>
       </c>
       <c r="C134" s="2">
         <v>2563.37</v>
       </c>
       <c r="D134" s="2">
-        <v>512.15</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45220.500138888892</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <v>0</v>
       </c>
       <c r="C135" s="2">
         <v>2546.6799999999998</v>
       </c>
       <c r="D135" s="2">
-        <v>457.7</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45220.541805555556</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <v>0</v>
       </c>
       <c r="C136" s="2">
         <v>2533.69</v>
       </c>
       <c r="D136" s="2">
-        <v>417.23</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45220.583472222221</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="3">
         <v>0</v>
       </c>
       <c r="C137" s="2">
         <v>2524.34</v>
       </c>
       <c r="D137" s="2">
-        <v>389.16</v>
+        <v>389</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45220.625138888892</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="3">
         <v>0</v>
       </c>
       <c r="C138" s="2">
         <v>2519.44</v>
       </c>
       <c r="D138" s="2">
-        <v>374.8</v>
+        <v>374</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45220.666805555556</v>
       </c>
-      <c r="B139" s="4">
-        <v>0</v>
-      </c>
-      <c r="C139">
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="C139" s="2">
         <v>2513.71</v>
       </c>
-      <c r="D139">
-        <v>358.32</v>
+      <c r="D139" s="2">
+        <v>358</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45220.708472222221</v>
       </c>
-      <c r="B140" s="4">
-        <v>0</v>
-      </c>
-      <c r="C140">
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2">
         <v>2530.58</v>
       </c>
-      <c r="D140">
-        <v>407.8</v>
+      <c r="D140" s="2">
+        <v>407</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45220.750138888892</v>
       </c>
-      <c r="B141" s="4">
-        <v>0</v>
-      </c>
-      <c r="C141">
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2">
         <v>2551.1799999999998</v>
       </c>
-      <c r="D141">
-        <v>472.11</v>
+      <c r="D141" s="2">
+        <v>472</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45220.791805555556</v>
       </c>
-      <c r="B142" s="4">
-        <v>0</v>
-      </c>
-      <c r="C142">
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+      <c r="C142" s="2">
         <v>2563.66</v>
       </c>
-      <c r="D142">
-        <v>513.13</v>
+      <c r="D142" s="2">
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45220.833472222221</v>
       </c>
-      <c r="B143" s="4">
-        <v>0</v>
-      </c>
-      <c r="C143">
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2">
         <v>2557.44</v>
       </c>
-      <c r="D143">
-        <v>492.49</v>
+      <c r="D143" s="2">
+        <v>492</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45220.875138888892</v>
       </c>
-      <c r="B144" s="4">
-        <v>0</v>
-      </c>
-      <c r="C144">
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144" s="2">
         <v>2570.4899999999998</v>
       </c>
-      <c r="D144">
-        <v>536.23</v>
+      <c r="D144" s="2">
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45220.916805555556</v>
       </c>
-      <c r="B145" s="4">
-        <v>0</v>
-      </c>
-      <c r="C145">
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2">
         <v>2587.8200000000002</v>
       </c>
-      <c r="D145">
-        <v>596.89</v>
+      <c r="D145" s="2">
+        <v>596</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45220.958472222221</v>
       </c>
-      <c r="B146" s="4">
-        <v>0</v>
-      </c>
-      <c r="C146">
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+      <c r="C146" s="2">
         <v>2611.34</v>
       </c>
-      <c r="D146">
-        <v>683.91</v>
+      <c r="D146" s="2">
+        <v>683</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45221.000138888892</v>
       </c>
-      <c r="B147" s="4">
-        <v>0</v>
-      </c>
-      <c r="C147">
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+      <c r="C147" s="2">
         <v>2627.71</v>
       </c>
-      <c r="D147">
-        <v>747.61</v>
+      <c r="D147" s="2">
+        <v>747</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45221.041805555556</v>
       </c>
-      <c r="B148" s="4">
-        <v>0</v>
-      </c>
-      <c r="C148">
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+      <c r="C148" s="2">
         <v>2638.93</v>
       </c>
-      <c r="D148">
-        <v>792.74</v>
+      <c r="D148" s="2">
+        <v>792</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45221.083472222221</v>
       </c>
-      <c r="B149" s="4">
-        <v>0</v>
-      </c>
-      <c r="C149">
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+      <c r="C149" s="2">
         <v>2647.17</v>
       </c>
-      <c r="D149">
-        <v>826.65</v>
+      <c r="D149" s="2">
+        <v>826</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45221.125138888892</v>
       </c>
-      <c r="B150" s="4">
-        <v>0</v>
-      </c>
-      <c r="C150">
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+      <c r="C150" s="2">
         <v>2640.45</v>
       </c>
-      <c r="D150">
-        <v>798.95</v>
+      <c r="D150" s="2">
+        <v>798</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45221.166805555556</v>
       </c>
-      <c r="B151" s="4">
-        <v>0</v>
-      </c>
-      <c r="C151">
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+      <c r="C151" s="2">
         <v>2614.67</v>
       </c>
-      <c r="D151">
-        <v>696.66</v>
+      <c r="D151" s="2">
+        <v>696</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45221.208472222221</v>
       </c>
-      <c r="B152" s="4">
-        <v>0</v>
-      </c>
-      <c r="C152">
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+      <c r="C152" s="2">
         <v>2590.0700000000002</v>
       </c>
-      <c r="D152">
-        <v>604.99</v>
+      <c r="D152" s="2">
+        <v>604</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45221.250138888892</v>
       </c>
-      <c r="B153" s="4">
-        <v>0</v>
-      </c>
-      <c r="C153">
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+      <c r="C153" s="2">
         <v>2567.58</v>
       </c>
-      <c r="D153">
-        <v>526.33000000000004</v>
+      <c r="D153" s="2">
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45221.291805555556</v>
       </c>
-      <c r="B154" s="4">
-        <v>0</v>
-      </c>
-      <c r="C154">
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154" s="2">
         <v>2548.31</v>
       </c>
-      <c r="D154">
-        <v>462.89</v>
+      <c r="D154" s="2">
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45221.333472222221</v>
       </c>
-      <c r="B155" s="4">
-        <v>0</v>
-      </c>
-      <c r="C155">
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
+      <c r="C155" s="2">
         <v>2535.8000000000002</v>
       </c>
-      <c r="D155">
-        <v>423.69</v>
+      <c r="D155" s="2">
+        <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45221.375138888892</v>
       </c>
-      <c r="B156" s="4">
-        <v>0</v>
-      </c>
-      <c r="C156">
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+      <c r="C156" s="2">
         <v>2525.19</v>
       </c>
-      <c r="D156">
-        <v>391.68</v>
+      <c r="D156" s="2">
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45221.416805555556</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <v>7.2</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>2517.73</v>
       </c>
-      <c r="D157">
-        <v>369.85</v>
+      <c r="D157" s="2">
+        <v>369</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45221.458472222221</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <v>0.6</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="2">
         <v>2512.66</v>
       </c>
-      <c r="D158">
-        <v>355.34</v>
+      <c r="D158" s="2">
+        <v>355</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45221.500138888892</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="3">
         <v>1.4</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="2">
         <v>2509.39</v>
       </c>
-      <c r="D159">
-        <v>346.12</v>
+      <c r="D159" s="2">
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45221.541805555556</v>
       </c>
-      <c r="B160" s="4">
-        <v>0</v>
-      </c>
-      <c r="C160">
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+      <c r="C160" s="2">
         <v>2507.39</v>
       </c>
-      <c r="D160">
-        <v>340.54</v>
+      <c r="D160" s="2">
+        <v>340</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45221.583472222221</v>
       </c>
-      <c r="B161" s="4">
-        <v>0</v>
-      </c>
-      <c r="C161">
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2">
         <v>2504.36</v>
       </c>
-      <c r="D161">
-        <v>332.15</v>
+      <c r="D161" s="2">
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45221.625138888892</v>
       </c>
-      <c r="B162" s="4">
-        <v>0</v>
-      </c>
-      <c r="C162">
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2">
         <v>2501.38</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="2">
         <v>324</v>
       </c>
     </row>
@@ -2815,965 +2735,965 @@
       <c r="A163" s="1">
         <v>45221.666805555556</v>
       </c>
-      <c r="B163" s="4">
-        <v>0</v>
-      </c>
-      <c r="C163">
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+      <c r="C163" s="2">
         <v>2500.15</v>
       </c>
-      <c r="D163">
-        <v>320.66000000000003</v>
+      <c r="D163" s="2">
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45221.708472222221</v>
       </c>
-      <c r="B164" s="4">
-        <v>0</v>
-      </c>
-      <c r="C164">
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+      <c r="C164" s="2">
         <v>2499.02</v>
       </c>
-      <c r="D164">
-        <v>317.61</v>
+      <c r="D164" s="2">
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45221.750138888892</v>
       </c>
-      <c r="B165" s="4">
-        <v>0</v>
-      </c>
-      <c r="C165">
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+      <c r="C165" s="2">
         <v>2498.2600000000002</v>
       </c>
-      <c r="D165">
-        <v>315.57</v>
+      <c r="D165" s="2">
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45221.791805555556</v>
       </c>
-      <c r="B166" s="4">
-        <v>0</v>
-      </c>
-      <c r="C166">
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="C166" s="2">
         <v>2498.0300000000002</v>
       </c>
-      <c r="D166">
-        <v>314.95</v>
+      <c r="D166" s="2">
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45221.833472222221</v>
       </c>
-      <c r="B167" s="4">
-        <v>0</v>
-      </c>
-      <c r="C167">
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2">
         <v>2497.56</v>
       </c>
-      <c r="D167">
-        <v>313.69</v>
+      <c r="D167" s="2">
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45221.875138888892</v>
       </c>
-      <c r="B168" s="4">
-        <v>0</v>
-      </c>
-      <c r="C168">
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+      <c r="C168" s="2">
         <v>2496.77</v>
       </c>
-      <c r="D168">
-        <v>311.57</v>
+      <c r="D168" s="2">
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45221.916805555556</v>
       </c>
-      <c r="B169" s="4">
-        <v>0</v>
-      </c>
-      <c r="C169">
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+      <c r="C169" s="2">
         <v>2496.08</v>
       </c>
-      <c r="D169">
-        <v>309.73</v>
+      <c r="D169" s="2">
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45221.958472222221</v>
       </c>
-      <c r="B170" s="4">
-        <v>0</v>
-      </c>
-      <c r="C170">
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="C170" s="2">
         <v>2495.7800000000002</v>
       </c>
-      <c r="D170">
-        <v>308.93</v>
+      <c r="D170" s="2">
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45222.000138888892</v>
       </c>
-      <c r="B171" s="4">
-        <v>0</v>
-      </c>
-      <c r="C171">
+      <c r="B171" s="3">
+        <v>0</v>
+      </c>
+      <c r="C171" s="2">
         <v>2495.5300000000002</v>
       </c>
-      <c r="D171">
-        <v>308.27</v>
+      <c r="D171" s="2">
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45222.041805555556</v>
       </c>
-      <c r="B172" s="4">
-        <v>0</v>
-      </c>
-      <c r="C172">
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+      <c r="C172" s="2">
         <v>2494.85</v>
       </c>
-      <c r="D172">
-        <v>306.45999999999998</v>
+      <c r="D172" s="2">
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45222.083472222221</v>
       </c>
-      <c r="B173" s="4">
-        <v>0</v>
-      </c>
-      <c r="C173">
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+      <c r="C173" s="2">
         <v>2495.0500000000002</v>
       </c>
-      <c r="D173">
-        <v>306.99</v>
+      <c r="D173" s="2">
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45222.125138888892</v>
       </c>
-      <c r="B174" s="4">
-        <v>0</v>
-      </c>
-      <c r="C174">
+      <c r="B174" s="3">
+        <v>0</v>
+      </c>
+      <c r="C174" s="2">
         <v>2494.61</v>
       </c>
-      <c r="D174">
-        <v>305.82</v>
+      <c r="D174" s="2">
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45222.166805555556</v>
       </c>
-      <c r="B175" s="4">
-        <v>0</v>
-      </c>
-      <c r="C175">
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+      <c r="C175" s="2">
         <v>2493.87</v>
       </c>
-      <c r="D175">
-        <v>303.87</v>
+      <c r="D175" s="2">
+        <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45222.208472222221</v>
       </c>
-      <c r="B176" s="4">
-        <v>0</v>
-      </c>
-      <c r="C176">
+      <c r="B176" s="3">
+        <v>0</v>
+      </c>
+      <c r="C176" s="2">
         <v>2494.1799999999998</v>
       </c>
-      <c r="D176">
-        <v>304.69</v>
+      <c r="D176" s="2">
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45222.250138888892</v>
       </c>
-      <c r="B177" s="4">
-        <v>0</v>
-      </c>
-      <c r="C177">
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+      <c r="C177" s="2">
         <v>2495.17</v>
       </c>
-      <c r="D177">
-        <v>307.31</v>
+      <c r="D177" s="2">
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45222.291805555556</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <v>12.4</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="2">
         <v>2495.94</v>
       </c>
-      <c r="D178">
-        <v>309.36</v>
+      <c r="D178" s="2">
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45222.333472222221</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <v>9.4</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="2">
         <v>2496.2600000000002</v>
       </c>
-      <c r="D179">
-        <v>310.20999999999998</v>
+      <c r="D179" s="2">
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45222.375138888892</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <v>0.8</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="2">
         <v>2495.7399999999998</v>
       </c>
-      <c r="D180">
-        <v>308.83</v>
+      <c r="D180" s="2">
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45222.416805555556</v>
       </c>
-      <c r="B181" s="4">
-        <v>0</v>
-      </c>
-      <c r="C181">
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+      <c r="C181" s="2">
         <v>2496.2399999999998</v>
       </c>
-      <c r="D181">
-        <v>310.16000000000003</v>
+      <c r="D181" s="2">
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45222.458472222221</v>
       </c>
-      <c r="B182" s="4">
-        <v>0</v>
-      </c>
-      <c r="C182">
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+      <c r="C182" s="2">
         <v>2496.35</v>
       </c>
-      <c r="D182">
-        <v>310.45</v>
+      <c r="D182" s="2">
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45222.500138888892</v>
       </c>
-      <c r="B183" s="4">
-        <v>0</v>
-      </c>
-      <c r="C183">
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+      <c r="C183" s="2">
         <v>2496.19</v>
       </c>
-      <c r="D183">
-        <v>310.02</v>
+      <c r="D183" s="2">
+        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45222.541805555556</v>
       </c>
-      <c r="B184" s="4">
-        <v>0</v>
-      </c>
-      <c r="C184">
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+      <c r="C184" s="2">
         <v>2496.09</v>
       </c>
-      <c r="D184">
-        <v>309.76</v>
+      <c r="D184" s="2">
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45222.583472222221</v>
       </c>
-      <c r="B185" s="4">
-        <v>0</v>
-      </c>
-      <c r="C185">
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+      <c r="C185" s="2">
         <v>2496.25</v>
       </c>
-      <c r="D185">
-        <v>310.18</v>
+      <c r="D185" s="2">
+        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45222.625138888892</v>
       </c>
-      <c r="B186" s="4">
-        <v>0</v>
-      </c>
-      <c r="C186">
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+      <c r="C186" s="2">
         <v>2495.96</v>
       </c>
-      <c r="D186">
-        <v>309.41000000000003</v>
+      <c r="D186" s="2">
+        <v>309</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45222.666805555556</v>
       </c>
-      <c r="B187" s="4">
-        <v>0</v>
-      </c>
-      <c r="C187">
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+      <c r="C187" s="2">
         <v>2496.4</v>
       </c>
-      <c r="D187">
-        <v>310.58</v>
+      <c r="D187" s="2">
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45222.708472222221</v>
       </c>
-      <c r="B188" s="4">
-        <v>0</v>
-      </c>
-      <c r="C188">
+      <c r="B188" s="3">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2">
         <v>2495.5</v>
       </c>
-      <c r="D188">
-        <v>308.19</v>
+      <c r="D188" s="2">
+        <v>308</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>45222.750138888892</v>
       </c>
-      <c r="B189" s="4">
-        <v>0</v>
-      </c>
-      <c r="C189">
+      <c r="B189" s="3">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2">
         <v>2495.64</v>
       </c>
-      <c r="D189">
-        <v>308.56</v>
+      <c r="D189" s="2">
+        <v>308</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45222.791805555556</v>
       </c>
-      <c r="B190" s="4">
-        <v>0</v>
-      </c>
-      <c r="C190">
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+      <c r="C190" s="2">
         <v>2494.67</v>
       </c>
-      <c r="D190">
-        <v>305.98</v>
+      <c r="D190" s="2">
+        <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>45222.833472222221</v>
       </c>
-      <c r="B191" s="4">
-        <v>0</v>
-      </c>
-      <c r="C191">
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+      <c r="C191" s="2">
         <v>2493.66</v>
       </c>
-      <c r="D191">
-        <v>303.31</v>
+      <c r="D191" s="2">
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>45222.875138888892</v>
       </c>
-      <c r="B192" s="4">
-        <v>0</v>
-      </c>
-      <c r="C192">
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+      <c r="C192" s="2">
         <v>2493.0100000000002</v>
       </c>
-      <c r="D192">
-        <v>301.60000000000002</v>
+      <c r="D192" s="2">
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45222.916805555556</v>
       </c>
-      <c r="B193" s="4">
-        <v>0</v>
-      </c>
-      <c r="C193">
+      <c r="B193" s="3">
+        <v>0</v>
+      </c>
+      <c r="C193" s="2">
         <v>2492.69</v>
       </c>
-      <c r="D193">
-        <v>300.76</v>
+      <c r="D193" s="2">
+        <v>300</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45222.958472222221</v>
       </c>
-      <c r="B194" s="4">
-        <v>0</v>
-      </c>
-      <c r="C194">
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194" s="2">
         <v>2492</v>
       </c>
-      <c r="D194">
-        <v>298.94</v>
+      <c r="D194" s="2">
+        <v>298</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>45223.000138888892</v>
       </c>
-      <c r="B195" s="4">
-        <v>0</v>
-      </c>
-      <c r="C195">
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+      <c r="C195" s="2">
         <v>2491.61</v>
       </c>
-      <c r="D195">
-        <v>297.92</v>
+      <c r="D195" s="2">
+        <v>297</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45223.041805555556</v>
       </c>
-      <c r="B196" s="4">
-        <v>0</v>
-      </c>
-      <c r="C196">
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+      <c r="C196" s="2">
         <v>2491.19</v>
       </c>
-      <c r="D196">
-        <v>296.82</v>
+      <c r="D196" s="2">
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>45223.083472222221</v>
       </c>
-      <c r="B197" s="4">
-        <v>0</v>
-      </c>
-      <c r="C197">
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+      <c r="C197" s="2">
         <v>2490.7600000000002</v>
       </c>
-      <c r="D197">
-        <v>295.7</v>
+      <c r="D197" s="2">
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>45223.125138888892</v>
       </c>
-      <c r="B198" s="4">
-        <v>0</v>
-      </c>
-      <c r="C198">
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+      <c r="C198" s="2">
         <v>2506.65</v>
       </c>
-      <c r="D198">
-        <v>338.48</v>
+      <c r="D198" s="2">
+        <v>338</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>45223.166805555556</v>
       </c>
-      <c r="B199" s="4">
-        <v>0</v>
-      </c>
-      <c r="C199">
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+      <c r="C199" s="2">
         <v>2505.5</v>
       </c>
-      <c r="D199">
-        <v>335.3</v>
+      <c r="D199" s="2">
+        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>45223.208472222221</v>
       </c>
-      <c r="B200" s="4">
-        <v>0</v>
-      </c>
-      <c r="C200">
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="C200" s="2">
         <v>2502.08</v>
       </c>
-      <c r="D200">
-        <v>325.91000000000003</v>
+      <c r="D200" s="2">
+        <v>325</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>45223.250138888892</v>
       </c>
-      <c r="B201" s="4">
-        <v>0</v>
-      </c>
-      <c r="C201">
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C201" s="2">
         <v>2499.75</v>
       </c>
-      <c r="D201">
-        <v>319.58</v>
+      <c r="D201" s="2">
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>45223.291805555556</v>
       </c>
-      <c r="B202" s="4">
-        <v>0</v>
-      </c>
-      <c r="C202">
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+      <c r="C202" s="2">
         <v>2496.98</v>
       </c>
-      <c r="D202">
-        <v>312.13</v>
+      <c r="D202" s="2">
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>45223.333472222221</v>
       </c>
-      <c r="B203" s="4">
-        <v>0</v>
-      </c>
-      <c r="C203">
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+      <c r="C203" s="2">
         <v>2495.39</v>
       </c>
-      <c r="D203">
-        <v>307.89</v>
+      <c r="D203" s="2">
+        <v>307</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45223.375138888892</v>
       </c>
-      <c r="B204" s="4">
-        <v>0</v>
-      </c>
-      <c r="C204">
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204" s="2">
         <v>2494.19</v>
       </c>
-      <c r="D204">
-        <v>304.70999999999998</v>
+      <c r="D204" s="2">
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45223.416805555556</v>
       </c>
-      <c r="B205" s="4">
-        <v>0</v>
-      </c>
-      <c r="C205">
+      <c r="B205" s="3">
+        <v>0</v>
+      </c>
+      <c r="C205" s="2">
         <v>2493.54</v>
       </c>
-      <c r="D205">
-        <v>302.99</v>
+      <c r="D205" s="2">
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45223.458472222221</v>
       </c>
-      <c r="B206" s="4">
-        <v>0</v>
-      </c>
-      <c r="C206">
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206" s="2">
         <v>2492.98</v>
       </c>
-      <c r="D206">
-        <v>301.52</v>
+      <c r="D206" s="2">
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45223.500138888892</v>
       </c>
-      <c r="B207" s="4">
-        <v>0</v>
-      </c>
-      <c r="C207">
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+      <c r="C207" s="2">
         <v>2492.52</v>
       </c>
-      <c r="D207">
-        <v>300.31</v>
+      <c r="D207" s="2">
+        <v>300</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45223.541805555556</v>
       </c>
-      <c r="B208" s="4">
-        <v>0</v>
-      </c>
-      <c r="C208">
+      <c r="B208" s="3">
+        <v>0</v>
+      </c>
+      <c r="C208" s="2">
         <v>2492.27</v>
       </c>
-      <c r="D208">
-        <v>299.64999999999998</v>
+      <c r="D208" s="2">
+        <v>299</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45223.583472222221</v>
       </c>
-      <c r="B209" s="4">
-        <v>0</v>
-      </c>
-      <c r="C209">
+      <c r="B209" s="3">
+        <v>0</v>
+      </c>
+      <c r="C209" s="2">
         <v>2492.2800000000002</v>
       </c>
-      <c r="D209">
-        <v>299.68</v>
+      <c r="D209" s="2">
+        <v>299</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45223.625138888892</v>
       </c>
-      <c r="B210" s="4">
-        <v>0</v>
-      </c>
-      <c r="C210">
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+      <c r="C210" s="2">
         <v>2492.4699999999998</v>
       </c>
-      <c r="D210">
-        <v>300.18</v>
+      <c r="D210" s="2">
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45223.666805555556</v>
       </c>
-      <c r="B211" s="4">
-        <v>0</v>
-      </c>
-      <c r="C211">
+      <c r="B211" s="3">
+        <v>0</v>
+      </c>
+      <c r="C211" s="2">
         <v>2493.1</v>
       </c>
-      <c r="D211">
-        <v>301.83</v>
+      <c r="D211" s="2">
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45223.708472222221</v>
       </c>
-      <c r="B212" s="4">
-        <v>0</v>
-      </c>
-      <c r="C212">
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="2">
         <v>2492.2600000000002</v>
       </c>
-      <c r="D212">
-        <v>299.63</v>
+      <c r="D212" s="2">
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45223.750138888892</v>
       </c>
-      <c r="B213" s="4">
-        <v>0</v>
-      </c>
-      <c r="C213">
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213" s="2">
         <v>2493.02</v>
       </c>
-      <c r="D213">
-        <v>301.62</v>
+      <c r="D213" s="2">
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45223.791805555556</v>
       </c>
-      <c r="B214" s="4">
-        <v>0</v>
-      </c>
-      <c r="C214">
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214" s="2">
         <v>2562.4299999999998</v>
       </c>
-      <c r="D214">
-        <v>509.01</v>
+      <c r="D214" s="2">
+        <v>509</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45223.833472222221</v>
       </c>
-      <c r="B215" s="4">
-        <v>0</v>
-      </c>
-      <c r="C215">
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+      <c r="C215" s="2">
         <v>2613.38</v>
       </c>
-      <c r="D215">
-        <v>691.7</v>
+      <c r="D215" s="2">
+        <v>691</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45223.875138888892</v>
       </c>
-      <c r="B216" s="4">
-        <v>0</v>
-      </c>
-      <c r="C216">
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+      <c r="C216" s="2">
         <v>2628.6</v>
       </c>
-      <c r="D216">
-        <v>751.14</v>
+      <c r="D216" s="2">
+        <v>751</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45223.916805555556</v>
       </c>
-      <c r="B217" s="4">
-        <v>0</v>
-      </c>
-      <c r="C217">
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+      <c r="C217" s="2">
         <v>2585.61</v>
       </c>
-      <c r="D217">
-        <v>588.99</v>
+      <c r="D217" s="2">
+        <v>588</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45223.958472222221</v>
       </c>
-      <c r="B218" s="4">
-        <v>0</v>
-      </c>
-      <c r="C218">
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="2">
         <v>2561.83</v>
       </c>
-      <c r="D218">
-        <v>507.01</v>
+      <c r="D218" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45224.000138888892</v>
       </c>
-      <c r="B219" s="4">
-        <v>0</v>
-      </c>
-      <c r="C219">
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+      <c r="C219" s="2">
         <v>2526.0500000000002</v>
       </c>
-      <c r="D219">
-        <v>394.23</v>
+      <c r="D219" s="2">
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45224.041805555556</v>
       </c>
-      <c r="B220" s="4">
-        <v>0</v>
-      </c>
-      <c r="C220">
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+      <c r="C220" s="2">
         <v>2554.79</v>
       </c>
-      <c r="D220">
-        <v>483.81</v>
+      <c r="D220" s="2">
+        <v>483</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45224.083472222221</v>
       </c>
-      <c r="B221" s="4">
-        <v>0</v>
-      </c>
-      <c r="C221">
+      <c r="B221" s="3">
+        <v>0</v>
+      </c>
+      <c r="C221" s="2">
         <v>2547.5300000000002</v>
       </c>
-      <c r="D221">
-        <v>460.4</v>
+      <c r="D221" s="2">
+        <v>460</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45224.125138888892</v>
       </c>
-      <c r="B222" s="4">
-        <v>0</v>
-      </c>
-      <c r="C222">
+      <c r="B222" s="3">
+        <v>0</v>
+      </c>
+      <c r="C222" s="2">
         <v>2533.9</v>
       </c>
-      <c r="D222">
-        <v>417.87</v>
+      <c r="D222" s="2">
+        <v>417</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45224.166805555556</v>
       </c>
-      <c r="B223" s="4">
-        <v>0</v>
-      </c>
-      <c r="C223">
+      <c r="B223" s="3">
+        <v>0</v>
+      </c>
+      <c r="C223" s="2">
         <v>2523.35</v>
       </c>
-      <c r="D223">
-        <v>386.24</v>
+      <c r="D223" s="2">
+        <v>386</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45224.208472222221</v>
       </c>
-      <c r="B224" s="4">
-        <v>0</v>
-      </c>
-      <c r="C224">
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+      <c r="C224" s="2">
         <v>2515.56</v>
       </c>
-      <c r="D224">
-        <v>363.61</v>
+      <c r="D224" s="2">
+        <v>363</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45224.250138888892</v>
       </c>
-      <c r="B225" s="4">
-        <v>0</v>
-      </c>
-      <c r="C225">
+      <c r="B225" s="3">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2">
         <v>2510.23</v>
       </c>
-      <c r="D225">
-        <v>348.48</v>
+      <c r="D225" s="2">
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45224.291805555556</v>
       </c>
-      <c r="B226" s="4">
-        <v>0</v>
-      </c>
-      <c r="C226">
+      <c r="B226" s="3">
+        <v>0</v>
+      </c>
+      <c r="C226" s="2">
         <v>2506.5500000000002</v>
       </c>
-      <c r="D226">
-        <v>338.2</v>
+      <c r="D226" s="2">
+        <v>338</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45224.333472222221</v>
       </c>
-      <c r="B227" s="4">
-        <v>0</v>
-      </c>
-      <c r="C227">
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2">
         <v>2502.87</v>
       </c>
-      <c r="D227">
-        <v>328.07</v>
+      <c r="D227" s="2">
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45224.375138888892</v>
       </c>
-      <c r="B228" s="4">
-        <v>0</v>
-      </c>
-      <c r="C228">
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+      <c r="C228" s="2">
         <v>2500.61</v>
       </c>
-      <c r="D228">
-        <v>321.91000000000003</v>
+      <c r="D228" s="2">
+        <v>321</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45224.416805555556</v>
       </c>
-      <c r="B229" s="4">
-        <v>0</v>
-      </c>
-      <c r="C229">
+      <c r="B229" s="3">
+        <v>0</v>
+      </c>
+      <c r="C229" s="2">
         <v>2498.48</v>
       </c>
-      <c r="D229">
-        <v>316.16000000000003</v>
+      <c r="D229" s="2">
+        <v>316</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45224.458472222221</v>
       </c>
-      <c r="B230" s="4">
-        <v>0</v>
-      </c>
-      <c r="C230">
+      <c r="B230" s="3">
+        <v>0</v>
+      </c>
+      <c r="C230" s="2">
         <v>2497.1999999999998</v>
       </c>
-      <c r="D230">
-        <v>312.72000000000003</v>
+      <c r="D230" s="2">
+        <v>312</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45224.500138888892</v>
       </c>
-      <c r="B231" s="4">
-        <v>0</v>
-      </c>
-      <c r="C231">
+      <c r="B231" s="3">
+        <v>0</v>
+      </c>
+      <c r="C231" s="2">
         <v>2496.1799999999998</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="2">
         <v>310</v>
       </c>
     </row>
@@ -3781,154 +3701,646 @@
       <c r="A232" s="1">
         <v>45224.541805555556</v>
       </c>
-      <c r="B232" s="4">
-        <v>0</v>
-      </c>
-      <c r="C232">
+      <c r="B232" s="3">
+        <v>0</v>
+      </c>
+      <c r="C232" s="2">
         <v>2495.25</v>
       </c>
-      <c r="D232">
-        <v>307.52</v>
+      <c r="D232" s="2">
+        <v>307</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45224.583472222221</v>
       </c>
-      <c r="B233" s="4">
-        <v>0</v>
-      </c>
-      <c r="C233">
+      <c r="B233" s="3">
+        <v>0</v>
+      </c>
+      <c r="C233" s="2">
         <v>2494.1799999999998</v>
       </c>
-      <c r="D233">
-        <v>304.69</v>
+      <c r="D233" s="2">
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45224.625138888892</v>
       </c>
-      <c r="B234" s="4">
-        <v>0</v>
-      </c>
-      <c r="C234">
+      <c r="B234" s="3">
+        <v>0</v>
+      </c>
+      <c r="C234" s="2">
         <v>2501.86</v>
       </c>
-      <c r="D234">
-        <v>325.31</v>
+      <c r="D234" s="2">
+        <v>325</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>45224.666805555556</v>
       </c>
-      <c r="B235" s="4">
-        <v>0</v>
-      </c>
-      <c r="C235">
+      <c r="B235" s="3">
+        <v>0</v>
+      </c>
+      <c r="C235" s="2">
         <v>2537.34</v>
       </c>
-      <c r="D235">
-        <v>428.43</v>
+      <c r="D235" s="2">
+        <v>428</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>45224.708472222221</v>
       </c>
-      <c r="B236" s="4">
-        <v>0</v>
-      </c>
-      <c r="C236">
+      <c r="B236" s="3">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2">
         <v>2596.7600000000002</v>
       </c>
-      <c r="D236">
-        <v>629.34</v>
+      <c r="D236" s="2">
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>45224.750138888892</v>
       </c>
-      <c r="B237" s="4">
-        <v>0</v>
-      </c>
-      <c r="C237">
+      <c r="B237" s="3">
+        <v>0</v>
+      </c>
+      <c r="C237" s="2">
         <v>2633.68</v>
       </c>
-      <c r="D237">
-        <v>771.48</v>
+      <c r="D237" s="2">
+        <v>771</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>45224.791805555556</v>
       </c>
-      <c r="B238" s="4">
-        <v>0</v>
-      </c>
-      <c r="C238">
+      <c r="B238" s="3">
+        <v>0</v>
+      </c>
+      <c r="C238" s="2">
         <v>2654.29</v>
       </c>
-      <c r="D238">
-        <v>856.47</v>
+      <c r="D238" s="2">
+        <v>856</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>45224.833472222221</v>
       </c>
-      <c r="B239" s="4">
-        <v>0</v>
-      </c>
-      <c r="C239">
+      <c r="B239" s="3">
+        <v>0</v>
+      </c>
+      <c r="C239" s="2">
         <v>2666.9</v>
       </c>
-      <c r="D239">
-        <v>910.45</v>
+      <c r="D239" s="2">
+        <v>910</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>45224.875138888892</v>
       </c>
-      <c r="B240" s="4">
-        <v>0</v>
-      </c>
-      <c r="C240">
+      <c r="B240" s="3">
+        <v>0</v>
+      </c>
+      <c r="C240" s="2">
         <v>2675.89</v>
       </c>
-      <c r="D240">
-        <v>949.83</v>
+      <c r="D240" s="2">
+        <v>949</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45224.916805555556</v>
       </c>
-      <c r="B241" s="4">
-        <v>0</v>
-      </c>
-      <c r="C241">
+      <c r="B241" s="3">
+        <v>0</v>
+      </c>
+      <c r="C241" s="2">
         <v>2658.91</v>
       </c>
-      <c r="D241">
-        <v>876.07</v>
+      <c r="D241" s="2">
+        <v>876</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45224.958472222221</v>
       </c>
-      <c r="B242" s="4">
-        <v>0</v>
-      </c>
-      <c r="C242">
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C242" s="2">
         <v>2648.91</v>
       </c>
-      <c r="D242">
-        <v>833.9</v>
+      <c r="D242" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>45225.000138888892</v>
+      </c>
+      <c r="B243" s="3">
+        <v>0</v>
+      </c>
+      <c r="C243" s="2">
+        <v>2665.73</v>
+      </c>
+      <c r="D243" s="2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>45225.041805555556</v>
+      </c>
+      <c r="B244" s="3">
+        <v>0</v>
+      </c>
+      <c r="C244" s="2">
+        <v>2674.4</v>
+      </c>
+      <c r="D244" s="2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>45225.083472222221</v>
+      </c>
+      <c r="B245" s="3">
+        <v>0</v>
+      </c>
+      <c r="C245" s="2">
+        <v>2679.43</v>
+      </c>
+      <c r="D245" s="2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45225.125138888892</v>
+      </c>
+      <c r="B246" s="3">
+        <v>0</v>
+      </c>
+      <c r="C246" s="2">
+        <v>2664.33</v>
+      </c>
+      <c r="D246" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45225.166805555556</v>
+      </c>
+      <c r="B247" s="3">
+        <v>0</v>
+      </c>
+      <c r="C247" s="2">
+        <v>2630.83</v>
+      </c>
+      <c r="D247" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45225.208472222221</v>
+      </c>
+      <c r="B248" s="3">
+        <v>0</v>
+      </c>
+      <c r="C248" s="2">
+        <v>2596.7199999999998</v>
+      </c>
+      <c r="D248" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45225.250138888892</v>
+      </c>
+      <c r="B249" s="3">
+        <v>0</v>
+      </c>
+      <c r="C249" s="2">
+        <v>2571.2800000000002</v>
+      </c>
+      <c r="D249" s="2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45225.291805555556</v>
+      </c>
+      <c r="B250" s="3">
+        <v>0</v>
+      </c>
+      <c r="C250" s="2">
+        <v>2551.39</v>
+      </c>
+      <c r="D250" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45225.333472222221</v>
+      </c>
+      <c r="B251" s="3">
+        <v>0</v>
+      </c>
+      <c r="C251" s="2">
+        <v>2536.21</v>
+      </c>
+      <c r="D251" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45225.375138888892</v>
+      </c>
+      <c r="B252" s="3">
+        <v>0</v>
+      </c>
+      <c r="C252" s="2">
+        <v>2524.33</v>
+      </c>
+      <c r="D252" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45225.416805555556</v>
+      </c>
+      <c r="B253" s="3">
+        <v>0</v>
+      </c>
+      <c r="C253" s="2">
+        <v>2516.04</v>
+      </c>
+      <c r="D253" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45225.458472222221</v>
+      </c>
+      <c r="B254" s="3">
+        <v>0</v>
+      </c>
+      <c r="C254" s="2">
+        <v>2509.59</v>
+      </c>
+      <c r="D254" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45225.500138888892</v>
+      </c>
+      <c r="B255" s="3">
+        <v>0</v>
+      </c>
+      <c r="C255" s="2">
+        <v>2503.96</v>
+      </c>
+      <c r="D255" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45225.541805555556</v>
+      </c>
+      <c r="B256" s="3">
+        <v>0</v>
+      </c>
+      <c r="C256" s="2">
+        <v>2501.2399999999998</v>
+      </c>
+      <c r="D256" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45225.583472222221</v>
+      </c>
+      <c r="B257" s="3">
+        <v>0</v>
+      </c>
+      <c r="C257" s="2">
+        <v>2497.91</v>
+      </c>
+      <c r="D257" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45225.625138888892</v>
+      </c>
+      <c r="B258" s="3">
+        <v>0</v>
+      </c>
+      <c r="C258" s="2">
+        <v>2507.4299999999998</v>
+      </c>
+      <c r="D258" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45225.666805555556</v>
+      </c>
+      <c r="B259" s="3">
+        <v>0</v>
+      </c>
+      <c r="C259" s="2">
+        <v>2574.0700000000002</v>
+      </c>
+      <c r="D259" s="2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45225.708472222221</v>
+      </c>
+      <c r="B260" s="3">
+        <v>0</v>
+      </c>
+      <c r="C260" s="2">
+        <v>2627.28</v>
+      </c>
+      <c r="D260" s="2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45225.750138888892</v>
+      </c>
+      <c r="B261" s="3">
+        <v>0</v>
+      </c>
+      <c r="C261" s="2">
+        <v>2649.29</v>
+      </c>
+      <c r="D261" s="2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45225.791805555556</v>
+      </c>
+      <c r="B262" s="3">
+        <v>0</v>
+      </c>
+      <c r="C262" s="2">
+        <v>2665.93</v>
+      </c>
+      <c r="D262" s="2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>45225.833472222221</v>
+      </c>
+      <c r="B263" s="3">
+        <v>0</v>
+      </c>
+      <c r="C263" s="2">
+        <v>2679.03</v>
+      </c>
+      <c r="D263" s="2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>45225.875138888892</v>
+      </c>
+      <c r="B264" s="3">
+        <v>0</v>
+      </c>
+      <c r="C264" s="2">
+        <v>2689.24</v>
+      </c>
+      <c r="D264" s="2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>45225.916805555556</v>
+      </c>
+      <c r="B265" s="3">
+        <v>0</v>
+      </c>
+      <c r="C265" s="2">
+        <v>2693.21</v>
+      </c>
+      <c r="D265" s="2">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>45225.958472222221</v>
+      </c>
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+      <c r="C266" s="2">
+        <v>2696.32</v>
+      </c>
+      <c r="D266" s="2">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>45226.000138888892</v>
+      </c>
+      <c r="B267" s="3">
+        <v>0</v>
+      </c>
+      <c r="C267" s="2">
+        <v>2699.69</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>45226.041805555556</v>
+      </c>
+      <c r="B268" s="3">
+        <v>0</v>
+      </c>
+      <c r="C268" s="2">
+        <v>2701.93</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45226.083472222221</v>
+      </c>
+      <c r="B269" s="3">
+        <v>0</v>
+      </c>
+      <c r="C269" s="2">
+        <v>2700.13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>45226.125138888892</v>
+      </c>
+      <c r="B270" s="3">
+        <v>0</v>
+      </c>
+      <c r="C270" s="2">
+        <v>2692.73</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>45226.166805555556</v>
+      </c>
+      <c r="B271" s="3">
+        <v>0</v>
+      </c>
+      <c r="C271" s="2">
+        <v>2669.77</v>
+      </c>
+      <c r="D271" s="2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>45226.208472222221</v>
+      </c>
+      <c r="B272" s="3">
+        <v>0</v>
+      </c>
+      <c r="C272" s="2">
+        <v>2642.61</v>
+      </c>
+      <c r="D272" s="2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>45226.250138888892</v>
+      </c>
+      <c r="B273" s="3">
+        <v>0</v>
+      </c>
+      <c r="C273" s="2">
+        <v>2604.31</v>
+      </c>
+      <c r="D273" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>45226.291805555556</v>
+      </c>
+      <c r="B274" s="3">
+        <v>0</v>
+      </c>
+      <c r="C274" s="2">
+        <v>2577.64</v>
+      </c>
+      <c r="D274" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>45226.333472222221</v>
+      </c>
+      <c r="B275" s="3">
+        <v>0</v>
+      </c>
+      <c r="C275" s="2">
+        <v>2557.06</v>
+      </c>
+      <c r="D275" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>45226.375138888892</v>
+      </c>
+      <c r="B276" s="3">
+        <v>0</v>
+      </c>
+      <c r="C276" s="2">
+        <v>2541.3200000000002</v>
+      </c>
+      <c r="D276" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>45226.416805555556</v>
+      </c>
+      <c r="B277" s="3">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2">
+        <v>2529.37</v>
+      </c>
+      <c r="D277" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>45226.458472222221</v>
+      </c>
+      <c r="B278" s="3">
+        <v>0</v>
+      </c>
+      <c r="C278" s="2">
+        <v>2520.19</v>
+      </c>
+      <c r="D278" s="2">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
